--- a/Guru99 Banking Project_version 1.xlsx
+++ b/Guru99 Banking Project_version 1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Important\Software Testing Course\Test cases\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Abanob\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FA09A54-C845-475F-B054-18791DE31417}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADE5C5C6-AC19-46C8-B582-394F112BF949}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="19440" windowHeight="15600" tabRatio="703" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="15600" windowHeight="11760" tabRatio="703" firstSheet="5" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="information " sheetId="7" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="759" uniqueCount="493">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="946" uniqueCount="452">
   <si>
     <t>TestCase#</t>
   </si>
@@ -330,663 +330,38 @@
     <t>Add New Customer</t>
   </si>
   <si>
-    <t>Manager add new customer with vaild data</t>
-  </si>
-  <si>
-    <t>abanob magdy
-egypt fayoum
-fayoum
-single
-123466
-01096635070
-abanobmagdy@gmail.com</t>
-  </si>
-  <si>
-    <t>Accept name
-Accept adress
-Accept city
-Accept state
-Accept pin code
-Accept phone number
-Accept Email</t>
-  </si>
-  <si>
-    <t>12abanob
-egypt fayoum
-fayoum
-single
-123466
-01096635070
-abanobmagdy@gmail.com</t>
-  </si>
-  <si>
-    <t>Reject name
-Accept adress
-Accept city
-Accept state
-Accept pin code
-Accept phone number
-Accept Email</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Manager add new customer with invaild name(Numbers) and vaild data </t>
-  </si>
-  <si>
     <t>Precondtions:</t>
   </si>
   <si>
-    <t xml:space="preserve">Manager add new customer with invaild name(Special characters) and vaild data </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Manager add new customer with invaild name(blank) and vaild data </t>
-  </si>
-  <si>
-    <t>#abanob
-egypt fayoum
-fayoum
-single
-123466
-01096635070
-abanobmagdy@gmail.com</t>
-  </si>
-  <si>
     <t>Action</t>
   </si>
   <si>
-    <t xml:space="preserve">
-egypt fayoum
-fayoum
-single
-123466
-01096635070
-abanobmagdy@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> banob
-egypt fayoum
-fayoum
-single
-123466
-01096635070
-abanobmagdy@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Manager add new customer with invaild address(blank) and vaild data </t>
-  </si>
-  <si>
-    <t>1-Manager enter a vaild name of user
-2- Manager enter a invaild address
-3- Manager enter a vaild city
-4- Manager enter a vaild state 
-5- Manager enter a vaild pin
-6-Manager enter a vaild telephone number
-7-Manager enter a vaild Email</t>
-  </si>
-  <si>
-    <t>abanob magdy
-fayoum
-single
-123466
-01096635070
-abanobmagdy@gmail.com</t>
-  </si>
-  <si>
-    <t>Accept name
-Reject adress
-Accept city
-Accept state
-Accept pin code
-Accept phone number
-Accept Email</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Manager add new customer with invaild address(First character have space) and vaild data </t>
-  </si>
-  <si>
-    <t>abanob magdy
-  egypt fayoum
-fayoum
-single
-123466
-01096635070
-abanobmagdy@gmail.com</t>
-  </si>
-  <si>
     <t xml:space="preserve">Manager add new customer with invaild name(First character) have space) and vaild data </t>
   </si>
   <si>
-    <t xml:space="preserve">Manager add new customer with invaild address(Special characters) and vaild data </t>
-  </si>
-  <si>
-    <t>abanob magdy
-  #egypt fayoum
-fayoum
-single
-123466
-01096635070
-abanobmagdy@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Manager add new customer with invaild Ciyt(Special characters) and vaild data </t>
-  </si>
-  <si>
-    <t>1-Manager enter a vaild name of user
-2- Manager enter a vaild address
-3- Manager enter a invaild city
-4- Manager enter a vaild state 
-5- Manager enter a vaild pin
-6-Manager enter a vaild telephone number
-7-Manager enter a vaild Email</t>
-  </si>
-  <si>
-    <t>abanob magdy
-  egypt fayoum
-#fayoum
-single
-123466
-01096635070
-abanobmagdy@gmail.com</t>
-  </si>
-  <si>
-    <t>Accept name
-Accept adress
-Reject city
-Accept state
-Accept pin code
-Accept phone number
-Accept Email</t>
-  </si>
-  <si>
-    <t>abanob magdy
-  egypt fayoum
-single
-123466
-01096635070
-abanobmagdy@gmail.com</t>
-  </si>
-  <si>
-    <t>abanob magdy
-  egypt fayoum
-  fayoum
-single
-123466
-01096635070
-abanobmagdy@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Manager add new customer with invaild City(blank) and vaild data </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Manager add new customer with invaild City(First character can have space) and vaild data </t>
-  </si>
-  <si>
-    <t>abanob magdy
-  #egypt fayoum
-f33ayoum
-single
-123466
-01096635070
-abanobmagdy@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Manager add new customer with invaild City(Numbers) and vaild data </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Manager add new customer with invaild State(Numbers) and vaild data </t>
-  </si>
-  <si>
-    <t>abanob magdy
-egypt fayoum
-fayoum
-11single
-123466
-01096635070
-abanobmagdy@gmail.com</t>
-  </si>
-  <si>
-    <t>Accept name
-Accept adress
-Accept city
-Reject state
-Accept pin code
-Accept phone number
-Accept Email</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Manager add new customer with invaild State(blank) and vaild data </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Manager add new customer with invaild State(Special characters) and vaild data </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Manager add new customer with invaild State(First character have space) and vaild data </t>
-  </si>
-  <si>
-    <t>abanob magdy
-egypt fayoum
-fayoum
-123466
-01096635070
-abanobmagdy@gmail.com</t>
-  </si>
-  <si>
-    <t>abanob magdy
-egypt fayoum
-fayoum
-$single
-123466
-01096635070
-abanobmagdy@gmail.com</t>
-  </si>
-  <si>
-    <t>abanob magdy
-egypt fayoum
-fayoum
-   single
-123466
-01096635070
-abanobmagdy@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Manager add new customer with invaild Pin (With Characters) and vaild data </t>
-  </si>
-  <si>
-    <t>abanob magdy
-egypt fayoum
-fayoum
-single
-a123
-01096635070
-abanobmagdy@gmail.com</t>
-  </si>
-  <si>
-    <t>Accept name
-Accept adress
-Accept city
-Accept state
-Reject pin code
-Accept phone number
-Accept Email</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Manager add new customer with invaild Pin (blank) and vaild data </t>
-  </si>
-  <si>
-    <t>abanob magdy
-egypt fayoum
-fayoum
-single
-01096635070
-abanobmagdy@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Manager add new customer with invaild Pin (Special characters) and vaild data </t>
-  </si>
-  <si>
-    <t>abanob magdy
-egypt fayoum
-fayoum
-single
-#123
-01096635070
-abanobmagdy@gmail.com</t>
-  </si>
-  <si>
-    <t>abanob magdy
-egypt fayoum
-fayoum
-single
-123
-01096635070
-abanobmagdy@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Manager add new customer with invaild Pin (Less than 6 Digits) and vaild data </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Manager add new customer with invaild Pin ( First character have space) and vaild data </t>
-  </si>
-  <si>
-    <t>abanob magdy
-egypt fayoum
-fayoum
-single
-    123
-01096635070
-abanobmagdy@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Manager add new customer with invaild Phone ( First character have space) and vaild data </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Manager add new customer with invaild Phone ( blank) and vaild data </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Manager add new customer with invaild Phone ( Special character) and vaild data </t>
-  </si>
-  <si>
     <t xml:space="preserve">Manager add new customer with invaild Phone ( With Character) and vaild data </t>
   </si>
   <si>
-    <t>abanob magdy
-egypt fayoum
-fayoum
-single
-123466
-abanobmagdy@gmail.com</t>
-  </si>
-  <si>
-    <t>abanob magdy
-egypt fayoum
-fayoum
-single
-123466
-#0#1096635070
-abanobmagdy@gmail.com</t>
-  </si>
-  <si>
-    <t>abanob magdy
-egypt fayoum
-fayoum
-single
-123466
-a010966a3v5070
-abanobmagdy@gmail.com</t>
-  </si>
-  <si>
-    <t>abanob magdy
-egypt fayoum
-fayoum
-single
-123466
-  01096635070
-abanobmagdy@gmail.com</t>
-  </si>
-  <si>
-    <t>Accept name
-Accept adress
-Accept city
-Accept state
-Accept pin code
-Reject phone number
-Accept Email</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Manager add new customer with invaild Email (blank)and vaild data </t>
-  </si>
-  <si>
     <t xml:space="preserve">Manager add new customer with invaild Email  (First character have space)and vaild data </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Manager add new customer with invaild Email (already store in database or fake account)and vaild data </t>
-  </si>
-  <si>
-    <t>Accept name
-Accept adress
-Accept city
-Accept state
-Accept pin code
-Accept phone number
-Reject Email</t>
-  </si>
-  <si>
-    <t xml:space="preserve">abanob magdy
-egypt fayoum
-fayoum
-single
-123466
-01096635070
-</t>
-  </si>
-  <si>
-    <t>abanob magdy
-egypt fayoum
-fayoum
-single
-123466
-01096635070
-   abanobmagdy@gmail.com</t>
-  </si>
-  <si>
-    <t>Manager add new customer with all invaild data</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$banob magdy
-#gypt fayoum
-#ayoum
-#ingle
-1236
-f010966a35070
-   </t>
-  </si>
-  <si>
-    <t>Reject name
-Reject adress
-Reject city
-Reject state
-Reject pin code
-Reject phone number
-Reject Email</t>
   </si>
   <si>
     <t>Manager must login in system and open add new customer page
 Manger enter vaild inputs of (Gender-Date of Birth)</t>
   </si>
   <si>
-    <t>1-Manager enter a vaild name of user
-2- Manager enter a vaild address
-3- Manager enter a vaild city
-4- Manager enter a vaild state 
-5- Manager enter a vaild pin
-6-Manager enter a vaild telephone number
-7-Manager enter a vaild Email
-8-click submit button</t>
-  </si>
-  <si>
-    <t>1-Manager enter a invaild name of user
-2- Manager enter a vaild address
-3- Manager enter a vaild city
-4- Manager enter a vaild state 
-5- Manager enter a vaild pin
-6-Manager enter a vaild telephone number
-7-Manager enter a vaild Email
-8-click submit button</t>
-  </si>
-  <si>
-    <t>1-Manager enter a vaild name of user
-2- Manager enter a invaild address
-3- Manager enter a vaild city
-4- Manager enter a vaild state 
-5- Manager enter a vaild pin
-6-Manager enter a vaild telephone number
-7-Manager enter a vaild Email
-8-click submit button</t>
-  </si>
-  <si>
-    <t>1-Manager enter a vaild name of user
-2- Manager enter a vaild address
-3- Manager enter a vaild city
-4- Manager enter a invaild state 
-5- Manager enter a vaild pin
-6-Manager enter a vaild telephone number
-7-Manager enter a vaild Email
-8-click submit button</t>
-  </si>
-  <si>
-    <t>1-Manager enter a vaild name of user
-2- Manager enter a vaild address
-3- Manager enter a vaild city
-4- Manager enter a vaild state 
-5- Manager enter a invaild pin
-6-Manager enter a vaild telephone number
-7-Manager enter a vaild Email
-8-click submit button</t>
-  </si>
-  <si>
-    <t>1-Manager enter a vaild name of user
-2- Manager enter a vaild address
-3- Manager enter a vaild city
-4- Manager enter a vaild state 
-5- Manager enter a vaild pin
-6-Manager enter a invaild telephone number
-7-Manager enter a vaild Email
-8-click submit button</t>
-  </si>
-  <si>
-    <t>1-Manager enter a vaild name of user
-2- Manager enter a vaild address
-3- Manager enter a vaild city
-4- Manager enter a vaild state 
-5- Manager enter a vaild pin
-6-Manager enter a vaild telephone number
-7-Manager enter a invaild Email
-8-click submit button</t>
-  </si>
-  <si>
-    <t>1-Manager enter a invaild name of user
-2- Manager enter a invaild address
-3- Manager enter a invaild city
-4- Manager enter a invaild state 
-5- Manager enter a invaild pin
-6-Manager enter a invaild telephone number
-7-Manager enter a invaild Email
-8-click submit button</t>
-  </si>
-  <si>
-    <t>Check Reset button</t>
-  </si>
-  <si>
-    <t>Delete name from user name textbox
-Delete address from user address textbox
-Delete city from user city textbox
-Delete state from user state textbox
-Delete pin from user pin textbox
-Delete phone from user telephone number  textbox
-Delete Email from user Email textbox</t>
-  </si>
-  <si>
-    <t>1-Manager enter a vaild name of user
-2- Manager enter a vaild address
-3- Manager enter a vaild city
-4- Manager enter a vaild state 
-5- Manager enter a vaild pin
-6-Manager enter a vaild telephone number
-7-Manager enter a vaild Email
-8-click Reset button</t>
-  </si>
-  <si>
     <t>New Account</t>
   </si>
   <si>
-    <t xml:space="preserve">Manager enter vaild Customer Id </t>
-  </si>
-  <si>
-    <t>Show message added new account successfully</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Manager dose not enter Customer id </t>
-  </si>
-  <si>
-    <t>Show message Customer id is required</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Manager enter input with (Special character) </t>
-  </si>
-  <si>
-    <t>Show message Special character are not allowed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Manager enter input with ( character) </t>
-  </si>
-  <si>
-    <t>Show message character are not allowed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Manager enter input with ( Space) </t>
-  </si>
-  <si>
-    <t>Show message First character cannot have space</t>
-  </si>
-  <si>
-    <t>Delete all data in all textboxes</t>
-  </si>
-  <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
     <t>Eng : Abanob Magdy</t>
-  </si>
-  <si>
-    <t>Manager enter vaild Customer Id
-and Initial deposit less than 500</t>
-  </si>
-  <si>
-    <t>123456
-300</t>
-  </si>
-  <si>
-    <t>Show message Error the initial deposite must large than 500</t>
   </si>
   <si>
     <t>Manager must login in system and open (New Account) page
 Manger enter inputs (Account Type)</t>
   </si>
   <si>
-    <t>1- Manager enter vaild Customer Id  
-2-Manger enter vaild Initial deposit
-3- Click in submit button</t>
-  </si>
-  <si>
-    <t>1- Manager enter vaild Customer Id  
-2- Manager enter Initial deposit
-3- Click in submit button</t>
-  </si>
-  <si>
-    <t>123456
-600</t>
-  </si>
-  <si>
-    <t>#12354
-600</t>
-  </si>
-  <si>
-    <t>a12354
-600</t>
-  </si>
-  <si>
-    <t>12335
-600</t>
-  </si>
-  <si>
-    <t>123356
-600</t>
-  </si>
-  <si>
-    <t>1- Manager leave Customer id blank
-2-Manger enter vaild Initial deposit
-3- Click in submit button</t>
-  </si>
-  <si>
-    <t>1- Manager enter Special character in Customer Id
-2-Manger enter vaild Initial deposit  
-3- Click in submit button</t>
-  </si>
-  <si>
-    <t>1- Manager enter character in Customer Id
-2-Manger enter vaild Initial deposit  
-3- Click in submit button</t>
-  </si>
-  <si>
-    <t>1- Manager enter space in first diagit in Customer Id  
-2-Manger enter vaild Initial deposit
-3- Click in submit button</t>
-  </si>
-  <si>
-    <t>1- Manager enter Customer Id  
-2-Manger enter vaild Initial deposit
-3- Click in reset button</t>
-  </si>
-  <si>
     <t>TC_Guru99Banking_NewCustomer_001</t>
   </si>
   <si>
@@ -1069,12 +444,6 @@
   </si>
   <si>
     <t>TC_Guru99Banking_NewCustomer_028</t>
-  </si>
-  <si>
-    <t>TC_Guru99Banking_NewCustomer_029</t>
-  </si>
-  <si>
-    <t>TC_Guru99Banking_NewCustomer_030</t>
   </si>
   <si>
     <t>TC_Guru99Banking_NewAccount_001</t>
@@ -1117,83 +486,15 @@
 2- open Edit account page</t>
   </si>
   <si>
-    <t xml:space="preserve">Check edit customer function with vaild customer id </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1- Enter vaild customer id which include 6 digits of numbers
-2-Click submit button </t>
-  </si>
-  <si>
-    <t>ID:123456</t>
-  </si>
-  <si>
-    <t>System should display all data of this customer to edit it</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Check edit customer function with invaild customer id </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1- Enter invaild customer id which include 6 digits of numbers and characters
-2-Click submit button </t>
-  </si>
-  <si>
-    <t>ID:123adr</t>
-  </si>
-  <si>
-    <t>System should display error message include "Error yo should use vaild ID "</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Check edit customer function with click submit button without and data </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1-leave customer id blank
-2-Click submit button </t>
-  </si>
-  <si>
-    <t>ID:" "</t>
-  </si>
-  <si>
-    <t>System should display error message include "Please Enter Customer ID "</t>
-  </si>
-  <si>
-    <t>Check Reset button with vaild or invaild customer id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1- Enter vaild or invaild customer id 
-2-Click reset button </t>
-  </si>
-  <si>
-    <t>ID:123456 or 123aaa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Delete customer id from textbox </t>
-  </si>
-  <si>
     <t>TC_Guru99Banking_NewAccount_008</t>
   </si>
   <si>
     <t>TC_Guru99Banking_NewAccount_009</t>
   </si>
   <si>
-    <t>123456
-500a</t>
-  </si>
-  <si>
     <t>An error message "Initial Deposit must be numeric" must be shown</t>
   </si>
   <si>
-    <t xml:space="preserve">Initial Deposit must be numrical </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Initial Deposit Field Cannot have special character
-</t>
-  </si>
-  <si>
-    <t>1- Manager enter vaild Customer Id  
-2- Enter Special Character In Initial Deposit Field
-3- Click in submit button</t>
-  </si>
-  <si>
     <t>An error message "Initial Deposit cannot have special character" must be shown</t>
   </si>
   <si>
@@ -1201,19 +502,6 @@
   </si>
   <si>
     <t>First Character cannot be space</t>
-  </si>
-  <si>
-    <t>Initial Deposit First Character cannot be space</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1- Manager enter vaild Customer Id  
-2- Enter first character space
-3- Press Tab"
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-600</t>
   </si>
   <si>
     <t>An error message "Initial Deposit cannot have first character space" must be shown</t>
@@ -1498,9 +786,6 @@
     <t>TC_Guru99Banking_EditCustomer_023</t>
   </si>
   <si>
-    <t>Check Name Field  cannot be empty</t>
-  </si>
-  <si>
     <t>Edit Account</t>
   </si>
   <si>
@@ -1909,13 +1194,283 @@
   </si>
   <si>
     <t>TC_Guru99Banking_Customized Statement_015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12abanob
+</t>
+  </si>
+  <si>
+    <t>An error message "Numbers are not allowed" is shown</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Manager add new customer with invaild name(Special characters)</t>
+  </si>
+  <si>
+    <t>Manager add new customer with invaild name(Numbers)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#abanob
+</t>
+  </si>
+  <si>
+    <t>An error message "Special characters are not allowed" is shown</t>
+  </si>
+  <si>
+    <t>An error message "Customer name must not be blank" must shown</t>
+  </si>
+  <si>
+    <t>An error message "Customer name must not be blank" is shown</t>
+  </si>
+  <si>
+    <t>1) Enter First character Blank space</t>
+  </si>
+  <si>
+    <t>An error message "First character cannot be space" must be shown</t>
+  </si>
+  <si>
+    <t>Fail</t>
+  </si>
+  <si>
+    <t>Manager add new customer with invaild name(blank)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manager add new customer with invaild address(blank) </t>
+  </si>
+  <si>
+    <t>No error message is shown</t>
+  </si>
+  <si>
+    <t>Manager add new customer with invaild address(First character have space)</t>
+  </si>
+  <si>
+    <t>Manager add new customer with invaild address(Special characters)</t>
+  </si>
+  <si>
+    <t>1) Enter Special Character In Address Field</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#egypt fayoum
+</t>
+  </si>
+  <si>
+    <t>Manager add new customer with invaild Ciyt(Special characters)</t>
+  </si>
+  <si>
+    <t>An error message "City Field must be not blank" must be shown</t>
+  </si>
+  <si>
+    <t>An error message "City Field must be not blank" is shown</t>
+  </si>
+  <si>
+    <t>Manager add new customer with invaild City(blank)</t>
+  </si>
+  <si>
+    <t>Manager add new customer with invaild City(First character can have space)</t>
+  </si>
+  <si>
+    <t>Manager add new customer with invaild City(Numbers)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manager add new customer with invaild State(Numbers) </t>
+  </si>
+  <si>
+    <t>Manager add new customer with invaild State(blank)</t>
+  </si>
+  <si>
+    <t>An error message "State must not be blank" must be shown</t>
+  </si>
+  <si>
+    <t>An error message "State must not be blank" is shown</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manager add new customer with invaild State(First character have space) </t>
+  </si>
+  <si>
+    <t>Manager add new customer with invaild State(Special characters)</t>
+  </si>
+  <si>
+    <t>Manager add new customer with invaild Pin (With Characters)</t>
+  </si>
+  <si>
+    <t>Manager add new customer with invaild Pin (blank)</t>
+  </si>
+  <si>
+    <t>An error message "Characters are not allowed" is shown</t>
+  </si>
+  <si>
+    <t>An error message "PIN code must not be blank" must be shown</t>
+  </si>
+  <si>
+    <t>An error message "PIN code must not be blank" is shown</t>
+  </si>
+  <si>
+    <t>Manager add new customer with invaild Pin (Special characters)</t>
+  </si>
+  <si>
+    <t>An error message "PIN Code must have 6 Digits" must be shown</t>
+  </si>
+  <si>
+    <t>An error message "PIN Code must have 6 Digits" is shown</t>
+  </si>
+  <si>
+    <t>1225
+1231541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manager add new customer with invaild Pin (Less than and more than 6 Digits) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manager add new customer with invaild Pin ( First character have space) </t>
+  </si>
+  <si>
+    <t>An error message "Telephone no must not be blank" must be shown</t>
+  </si>
+  <si>
+    <t>An error message "Telephone no must not be blank" is shown</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manager add new customer with invaild Phone ( blank)  </t>
+  </si>
+  <si>
+    <t>1) Enter Special Character In Telephone Field</t>
+  </si>
+  <si>
+    <t>Manager add new customer with invaild Phone ( Special character)</t>
+  </si>
+  <si>
+    <t>1) Enter Character In Telephone Field</t>
+  </si>
+  <si>
+    <t>0124a012552</t>
+  </si>
+  <si>
+    <t>An error message "characters are not allowed" must be shown</t>
+  </si>
+  <si>
+    <t>An error message "characters are not allowed" is shown</t>
+  </si>
+  <si>
+    <t>Manager add new customer with invaild Phone ( First character have space) or have space in ant digit</t>
+  </si>
+  <si>
+    <t>Manager add new customer with invaild Email (blank)</t>
+  </si>
+  <si>
+    <t>An error message "Email ID must not be blank" must be shown</t>
+  </si>
+  <si>
+    <t>An error message "Email ID must not be blank" is shown</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Email must be in correct format </t>
+  </si>
+  <si>
+    <t>An error message "Email-ID is not valid"" must be shown</t>
+  </si>
+  <si>
+    <t>An error message "Email-ID is not valid"" is shown</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) Enter Blank space in Email </t>
+  </si>
+  <si>
+    <t>An error message "Email-ID is not valid" must be shown</t>
+  </si>
+  <si>
+    <t>Verify Field Labels</t>
+  </si>
+  <si>
+    <t>Check all Fields name(Label) are as documented in SRS for all modules</t>
+  </si>
+  <si>
+    <t>Cross check Field names with that in SRS</t>
+  </si>
+  <si>
+    <t>Field names in SRS and system should match</t>
+  </si>
+  <si>
+    <t>telephone number will be "Mobile number"</t>
+  </si>
+  <si>
+    <t>An error message "Customer ID must not blank" must be shown</t>
+  </si>
+  <si>
+    <t>Cannot be empty</t>
+  </si>
+  <si>
+    <t>1) Do not enter a value in Initial Deposit Field
+2) Press TAB and move to next Field</t>
+  </si>
+  <si>
+    <t>An error message "Initial deposit cannot be empty" must be shown</t>
+  </si>
+  <si>
+    <t>Must be numeric</t>
+  </si>
+  <si>
+    <t>1) Enter character value in Initial Deposit Field</t>
+  </si>
+  <si>
+    <t>Cannot have special character</t>
+  </si>
+  <si>
+    <t>1) Enter Special Character In Initial Deposit Field</t>
+  </si>
+  <si>
+    <t>Initial Deposit cannot have blank space</t>
+  </si>
+  <si>
+    <t>1) Initial Deposit cannot have Blank space
+2) Press Tab</t>
+  </si>
+  <si>
+    <t>An error message "Initial Deposit cannot have blank space" must be shown</t>
+  </si>
+  <si>
+    <t>Cannot be executed due to connection issue</t>
+  </si>
+  <si>
+    <t>An error message "Customer ID is required" is shown</t>
+  </si>
+  <si>
+    <t>Valid Customer Id</t>
+  </si>
+  <si>
+    <t>1) Enter valid Customer id
+2) Submit</t>
+  </si>
+  <si>
+    <t>xyz</t>
+  </si>
+  <si>
+    <t>Edit Customer successfully redirect to Edit Customer Page</t>
+  </si>
+  <si>
+    <t>Connection Error is shown " Warning: mysql_connect() [function.mysql-connect]: Access denied for user 'root'@'localhost' (using password: NO) in /home/demo/public_html/V1/html/editCustomerPage.php on line 3
+could not connect Access denied for user 'root'@'localhost' (using password: NO) "</t>
+  </si>
+  <si>
+    <t>Name cannot be empty</t>
+  </si>
+  <si>
+    <t>An error message "Account Number must not be blank" is shown</t>
+  </si>
+  <si>
+    <t>Connection Error is shown  " Warning: mysql_connect() [function.mysql-connect]: Access denied for user 'root'@'localhost' (using password: NO) in /home/demo/public_html/V1/html/editCustomerPage.php on line 3
+could not connect Access denied for user 'root'@'localhost' (using password: NO) "</t>
+  </si>
+  <si>
+    <t>pass</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="25" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1976,8 +1531,106 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial Rounded MT Bold"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial Rounded MT Bold"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="13">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2045,12 +1698,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor rgb="FFFF0000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -2138,12 +1803,40 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="96">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -2249,6 +1942,27 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2276,20 +1990,140 @@
     <xf numFmtId="0" fontId="7" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2732,7 +2566,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FECB13D7-C5AE-4A95-9B7D-3647B840FA42}">
   <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
@@ -2773,7 +2607,7 @@
         <v>91</v>
       </c>
       <c r="H4" s="15" t="s">
-        <v>189</v>
+        <v>102</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -3451,10 +3285,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DE18397-AF84-473A-B00D-BFD4363F028C}">
-  <dimension ref="A1:M33"/>
+  <dimension ref="A1:M31"/>
   <sheetViews>
-    <sheetView zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView topLeftCell="E1" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
+      <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -3463,8 +3297,8 @@
     <col min="2" max="2" width="32.44140625" style="23" customWidth="1"/>
     <col min="3" max="3" width="44.6640625" style="23" customWidth="1"/>
     <col min="4" max="4" width="32.77734375" style="23" customWidth="1"/>
-    <col min="5" max="5" width="41.109375" style="23" customWidth="1"/>
-    <col min="6" max="6" width="38.5546875" style="22" customWidth="1"/>
+    <col min="5" max="5" width="41.109375" style="8" customWidth="1"/>
+    <col min="6" max="6" width="38.5546875" style="53" customWidth="1"/>
     <col min="7" max="7" width="23.33203125" style="17" customWidth="1"/>
     <col min="8" max="16384" width="8.88671875" style="22"/>
   </cols>
@@ -3476,26 +3310,26 @@
       <c r="D1" s="20" t="s">
         <v>93</v>
       </c>
-      <c r="E1" s="21"/>
-      <c r="F1" s="19"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="52"/>
       <c r="G1" s="10"/>
-      <c r="I1" s="34"/>
-      <c r="J1" s="34"/>
-      <c r="K1" s="34"/>
-      <c r="L1" s="34"/>
-      <c r="M1" s="34"/>
+      <c r="I1" s="41"/>
+      <c r="J1" s="41"/>
+      <c r="K1" s="41"/>
+      <c r="L1" s="41"/>
+      <c r="M1" s="41"/>
     </row>
     <row r="2" spans="1:13" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
-        <v>100</v>
-      </c>
-      <c r="B2" s="35" t="s">
-        <v>164</v>
-      </c>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="37"/>
+        <v>94</v>
+      </c>
+      <c r="B2" s="42" t="s">
+        <v>99</v>
+      </c>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="44"/>
       <c r="G2" s="18"/>
     </row>
     <row r="3" spans="1:13" ht="23.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -3503,7 +3337,7 @@
         <v>0</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="C3" s="11" t="s">
         <v>3</v>
@@ -3521,546 +3355,624 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="115.2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A4" s="24" t="s">
-        <v>206</v>
+        <v>104</v>
       </c>
       <c r="B4" s="23" t="s">
-        <v>94</v>
-      </c>
-      <c r="C4" s="22" t="s">
-        <v>165</v>
-      </c>
-      <c r="D4" s="22" t="s">
-        <v>95</v>
-      </c>
-      <c r="E4" s="22" t="s">
+        <v>369</v>
+      </c>
+      <c r="C4" s="23" t="s">
+        <v>155</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>365</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>366</v>
+      </c>
+      <c r="G4" s="12" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A5" s="24" t="s">
+        <v>105</v>
+      </c>
+      <c r="B5" s="23" t="s">
+        <v>368</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>370</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>240</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>371</v>
+      </c>
+      <c r="G5" s="12" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A6" s="24" t="s">
+        <v>106</v>
+      </c>
+      <c r="B6" s="23" t="s">
+        <v>377</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="D6" s="22"/>
+      <c r="E6" s="8" t="s">
+        <v>372</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>373</v>
+      </c>
+      <c r="G6" s="12" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="43.2" x14ac:dyDescent="0.25">
+      <c r="A7" s="24" t="s">
+        <v>107</v>
+      </c>
+      <c r="B7" s="23" t="s">
         <v>96</v>
       </c>
-      <c r="G4" s="12"/>
-    </row>
-    <row r="5" spans="1:13" ht="115.2" x14ac:dyDescent="0.25">
-      <c r="A5" s="24" t="s">
-        <v>207</v>
-      </c>
-      <c r="B5" s="23" t="s">
-        <v>99</v>
-      </c>
-      <c r="C5" s="22" t="s">
+      <c r="C7" s="8" t="s">
+        <v>374</v>
+      </c>
+      <c r="D7" s="22"/>
+      <c r="E7" s="8" t="s">
+        <v>375</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>366</v>
+      </c>
+      <c r="G7" s="13" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A8" s="24" t="s">
+        <v>108</v>
+      </c>
+      <c r="B8" s="23" t="s">
+        <v>378</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>379</v>
+      </c>
+      <c r="G8" s="54" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="43.2" x14ac:dyDescent="0.25">
+      <c r="A9" s="24" t="s">
+        <v>109</v>
+      </c>
+      <c r="B9" s="23" t="s">
+        <v>380</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>374</v>
+      </c>
+      <c r="D9" s="22"/>
+      <c r="E9" s="23" t="s">
+        <v>375</v>
+      </c>
+      <c r="F9" s="23" t="s">
+        <v>379</v>
+      </c>
+      <c r="G9" s="54" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A10" s="24" t="s">
+        <v>110</v>
+      </c>
+      <c r="B10" s="23" t="s">
+        <v>381</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>382</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>383</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>240</v>
+      </c>
+      <c r="F10" s="23" t="s">
+        <v>379</v>
+      </c>
+      <c r="G10" s="54" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A11" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="B11" s="23" t="s">
+        <v>384</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="D11" s="34" t="s">
+        <v>174</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>240</v>
+      </c>
+      <c r="F11" s="53" t="s">
+        <v>371</v>
+      </c>
+      <c r="G11" s="12" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A12" s="24" t="s">
+        <v>112</v>
+      </c>
+      <c r="B12" s="23" t="s">
+        <v>387</v>
+      </c>
+      <c r="C12" s="8" t="s">
         <v>166</v>
       </c>
-      <c r="D5" s="22" t="s">
+      <c r="D12" s="22"/>
+      <c r="E12" s="8" t="s">
+        <v>385</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>386</v>
+      </c>
+      <c r="G12" s="12" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="43.2" x14ac:dyDescent="0.25">
+      <c r="A13" s="24" t="s">
+        <v>113</v>
+      </c>
+      <c r="B13" s="23" t="s">
+        <v>388</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>240</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>371</v>
+      </c>
+      <c r="G13" s="12" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A14" s="24" t="s">
+        <v>114</v>
+      </c>
+      <c r="B14" s="23" t="s">
+        <v>389</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>366</v>
+      </c>
+      <c r="G14" s="12" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A15" s="24" t="s">
+        <v>115</v>
+      </c>
+      <c r="B15" s="23" t="s">
+        <v>390</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>366</v>
+      </c>
+      <c r="G15" s="12" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A16" s="24" t="s">
+        <v>116</v>
+      </c>
+      <c r="B16" s="23" t="s">
+        <v>391</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8" t="s">
+        <v>392</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>393</v>
+      </c>
+      <c r="G16" s="12" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A17" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="B17" s="23" t="s">
+        <v>395</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>240</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>371</v>
+      </c>
+      <c r="G17" s="12" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="43.2" x14ac:dyDescent="0.25">
+      <c r="A18" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="B18" s="23" t="s">
+        <v>394</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>374</v>
+      </c>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8" t="s">
+        <v>375</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>366</v>
+      </c>
+      <c r="G18" s="13" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A19" s="24" t="s">
+        <v>119</v>
+      </c>
+      <c r="B19" s="23" t="s">
+        <v>396</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>239</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>398</v>
+      </c>
+      <c r="G19" s="12" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A20" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="B20" s="23" t="s">
+        <v>397</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8" t="s">
+        <v>399</v>
+      </c>
+      <c r="F20" s="8" t="s">
+        <v>400</v>
+      </c>
+      <c r="G20" s="12" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A21" s="24" t="s">
+        <v>121</v>
+      </c>
+      <c r="B21" s="23" t="s">
+        <v>401</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>240</v>
+      </c>
+      <c r="F21" s="53" t="s">
+        <v>371</v>
+      </c>
+      <c r="G21" s="12" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="43.2" x14ac:dyDescent="0.25">
+      <c r="A22" s="24" t="s">
+        <v>122</v>
+      </c>
+      <c r="B22" s="23" t="s">
+        <v>405</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>404</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>402</v>
+      </c>
+      <c r="F22" s="8" t="s">
+        <v>403</v>
+      </c>
+      <c r="G22" s="12" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="43.2" x14ac:dyDescent="0.25">
+      <c r="A23" s="24" t="s">
+        <v>123</v>
+      </c>
+      <c r="B23" s="23" t="s">
+        <v>406</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>374</v>
+      </c>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8" t="s">
+        <v>375</v>
+      </c>
+      <c r="F23" s="8" t="s">
+        <v>398</v>
+      </c>
+      <c r="G23" s="13" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A24" s="24" t="s">
+        <v>124</v>
+      </c>
+      <c r="B24" s="23" t="s">
+        <v>409</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8" t="s">
+        <v>407</v>
+      </c>
+      <c r="F24" s="8" t="s">
+        <v>408</v>
+      </c>
+      <c r="G24" s="12" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="43.2" x14ac:dyDescent="0.25">
+      <c r="A25" s="24" t="s">
+        <v>125</v>
+      </c>
+      <c r="B25" s="23" t="s">
+        <v>411</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>410</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="E25" s="8" t="s">
+        <v>240</v>
+      </c>
+      <c r="F25" s="8" t="s">
+        <v>371</v>
+      </c>
+      <c r="G25" s="12" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="43.2" x14ac:dyDescent="0.25">
+      <c r="A26" s="24" t="s">
+        <v>126</v>
+      </c>
+      <c r="B26" s="23" t="s">
         <v>97</v>
       </c>
-      <c r="E5" s="22" t="s">
+      <c r="C26" s="8" t="s">
+        <v>412</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>413</v>
+      </c>
+      <c r="E26" s="8" t="s">
+        <v>414</v>
+      </c>
+      <c r="F26" s="8" t="s">
+        <v>415</v>
+      </c>
+      <c r="G26" s="12" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="43.2" x14ac:dyDescent="0.25">
+      <c r="A27" s="24" t="s">
+        <v>127</v>
+      </c>
+      <c r="B27" s="23" t="s">
+        <v>416</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>374</v>
+      </c>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8" t="s">
+        <v>375</v>
+      </c>
+      <c r="F27" s="8" t="s">
+        <v>398</v>
+      </c>
+      <c r="G27" s="13" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A28" s="24" t="s">
+        <v>128</v>
+      </c>
+      <c r="B28" s="23" t="s">
+        <v>417</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>208</v>
+      </c>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8" t="s">
+        <v>418</v>
+      </c>
+      <c r="F28" s="8" t="s">
+        <v>419</v>
+      </c>
+      <c r="G28" s="12" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="43.2" x14ac:dyDescent="0.25">
+      <c r="A29" s="24" t="s">
+        <v>129</v>
+      </c>
+      <c r="B29" s="23" t="s">
         <v>98</v>
       </c>
-      <c r="G5" s="12"/>
-    </row>
-    <row r="6" spans="1:13" ht="115.2" x14ac:dyDescent="0.25">
-      <c r="A6" s="24" t="s">
-        <v>208</v>
-      </c>
-      <c r="B6" s="23" t="s">
-        <v>101</v>
-      </c>
-      <c r="C6" s="22" t="s">
-        <v>166</v>
-      </c>
-      <c r="D6" s="22" t="s">
-        <v>103</v>
-      </c>
-      <c r="E6" s="22" t="s">
-        <v>98</v>
-      </c>
-      <c r="G6" s="13"/>
-    </row>
-    <row r="7" spans="1:13" ht="115.2" x14ac:dyDescent="0.25">
-      <c r="A7" s="24" t="s">
-        <v>209</v>
-      </c>
-      <c r="B7" s="23" t="s">
-        <v>102</v>
-      </c>
-      <c r="C7" s="22" t="s">
-        <v>166</v>
-      </c>
-      <c r="D7" s="22" t="s">
-        <v>105</v>
-      </c>
-      <c r="E7" s="22" t="s">
-        <v>98</v>
-      </c>
-      <c r="G7" s="12"/>
-    </row>
-    <row r="8" spans="1:13" ht="115.2" x14ac:dyDescent="0.25">
-      <c r="A8" s="24" t="s">
-        <v>210</v>
-      </c>
-      <c r="B8" s="23" t="s">
-        <v>113</v>
-      </c>
-      <c r="C8" s="22" t="s">
-        <v>166</v>
-      </c>
-      <c r="D8" s="22" t="s">
-        <v>106</v>
-      </c>
-      <c r="E8" s="22" t="s">
-        <v>98</v>
-      </c>
-      <c r="G8" s="13"/>
-    </row>
-    <row r="9" spans="1:13" ht="115.2" x14ac:dyDescent="0.25">
-      <c r="A9" s="24" t="s">
+      <c r="C29" s="8" t="s">
+        <v>423</v>
+      </c>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8" t="s">
+        <v>424</v>
+      </c>
+      <c r="F29" s="8" t="s">
+        <v>379</v>
+      </c>
+      <c r="G29" s="13" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="72" x14ac:dyDescent="0.25">
+      <c r="A30" s="24" t="s">
+        <v>130</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>420</v>
+      </c>
+      <c r="C30" s="8" t="s">
         <v>211</v>
       </c>
-      <c r="B9" s="23" t="s">
-        <v>107</v>
-      </c>
-      <c r="C9" s="22" t="s">
-        <v>167</v>
-      </c>
-      <c r="D9" s="22" t="s">
-        <v>109</v>
-      </c>
-      <c r="E9" s="22" t="s">
-        <v>110</v>
-      </c>
-      <c r="G9" s="13"/>
-    </row>
-    <row r="10" spans="1:13" ht="100.8" x14ac:dyDescent="0.25">
-      <c r="A10" s="24" t="s">
-        <v>212</v>
-      </c>
-      <c r="B10" s="23" t="s">
-        <v>111</v>
-      </c>
-      <c r="C10" s="22" t="s">
-        <v>108</v>
-      </c>
-      <c r="D10" s="22" t="s">
-        <v>112</v>
-      </c>
-      <c r="E10" s="22" t="s">
-        <v>110</v>
-      </c>
-      <c r="G10" s="12"/>
-    </row>
-    <row r="11" spans="1:13" ht="100.8" x14ac:dyDescent="0.25">
-      <c r="A11" s="24" t="s">
-        <v>213</v>
-      </c>
-      <c r="B11" s="23" t="s">
-        <v>114</v>
-      </c>
-      <c r="C11" s="22" t="s">
-        <v>108</v>
-      </c>
-      <c r="D11" s="22" t="s">
-        <v>115</v>
-      </c>
-      <c r="E11" s="22" t="s">
-        <v>110</v>
-      </c>
-      <c r="G11" s="12"/>
-    </row>
-    <row r="12" spans="1:13" ht="100.8" x14ac:dyDescent="0.25">
-      <c r="A12" s="24" t="s">
+      <c r="D30" s="8" t="s">
         <v>214</v>
       </c>
-      <c r="B12" s="23" t="s">
-        <v>116</v>
-      </c>
-      <c r="C12" s="22" t="s">
-        <v>117</v>
-      </c>
-      <c r="D12" s="22" t="s">
-        <v>118</v>
-      </c>
-      <c r="E12" s="22" t="s">
-        <v>119</v>
-      </c>
-      <c r="G12" s="12"/>
-    </row>
-    <row r="13" spans="1:13" ht="100.8" x14ac:dyDescent="0.25">
-      <c r="A13" s="24" t="s">
-        <v>215</v>
-      </c>
-      <c r="B13" s="23" t="s">
-        <v>122</v>
-      </c>
-      <c r="C13" s="22" t="s">
-        <v>117</v>
-      </c>
-      <c r="D13" s="22" t="s">
-        <v>120</v>
-      </c>
-      <c r="E13" s="22" t="s">
-        <v>119</v>
-      </c>
-      <c r="G13" s="13"/>
-    </row>
-    <row r="14" spans="1:13" ht="100.8" x14ac:dyDescent="0.25">
-      <c r="A14" s="24" t="s">
-        <v>216</v>
-      </c>
-      <c r="B14" s="23" t="s">
-        <v>123</v>
-      </c>
-      <c r="C14" s="22" t="s">
-        <v>117</v>
-      </c>
-      <c r="D14" s="22" t="s">
-        <v>121</v>
-      </c>
-      <c r="E14" s="22" t="s">
-        <v>119</v>
-      </c>
-      <c r="G14" s="13"/>
-    </row>
-    <row r="15" spans="1:13" ht="100.8" x14ac:dyDescent="0.25">
-      <c r="A15" s="24" t="s">
-        <v>217</v>
-      </c>
-      <c r="B15" s="23" t="s">
-        <v>125</v>
-      </c>
-      <c r="C15" s="22" t="s">
-        <v>117</v>
-      </c>
-      <c r="D15" s="22" t="s">
-        <v>124</v>
-      </c>
-      <c r="E15" s="22" t="s">
-        <v>119</v>
-      </c>
-      <c r="G15" s="12"/>
-    </row>
-    <row r="16" spans="1:13" ht="115.2" x14ac:dyDescent="0.25">
-      <c r="A16" s="24" t="s">
-        <v>218</v>
-      </c>
-      <c r="B16" s="23" t="s">
-        <v>126</v>
-      </c>
-      <c r="C16" s="22" t="s">
-        <v>168</v>
-      </c>
-      <c r="D16" s="22" t="s">
-        <v>127</v>
-      </c>
-      <c r="E16" s="22" t="s">
-        <v>128</v>
-      </c>
-      <c r="G16" s="12"/>
-    </row>
-    <row r="17" spans="1:7" ht="115.2" x14ac:dyDescent="0.25">
-      <c r="A17" s="24" t="s">
-        <v>219</v>
-      </c>
-      <c r="B17" s="23" t="s">
-        <v>129</v>
-      </c>
-      <c r="C17" s="22" t="s">
-        <v>168</v>
-      </c>
-      <c r="D17" s="22" t="s">
-        <v>132</v>
-      </c>
-      <c r="E17" s="22" t="s">
-        <v>128</v>
-      </c>
-      <c r="G17" s="12"/>
-    </row>
-    <row r="18" spans="1:7" ht="115.2" x14ac:dyDescent="0.25">
-      <c r="A18" s="24" t="s">
-        <v>220</v>
-      </c>
-      <c r="B18" s="23" t="s">
-        <v>130</v>
-      </c>
-      <c r="C18" s="22" t="s">
-        <v>168</v>
-      </c>
-      <c r="D18" s="22" t="s">
-        <v>133</v>
-      </c>
-      <c r="E18" s="22" t="s">
-        <v>128</v>
-      </c>
-      <c r="G18" s="12"/>
-    </row>
-    <row r="19" spans="1:7" ht="115.2" x14ac:dyDescent="0.25">
-      <c r="A19" s="24" t="s">
-        <v>221</v>
-      </c>
-      <c r="B19" s="23" t="s">
+      <c r="E30" s="8" t="s">
+        <v>421</v>
+      </c>
+      <c r="F30" s="8" t="s">
+        <v>422</v>
+      </c>
+      <c r="G30" s="12" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A31" s="24" t="s">
         <v>131</v>
       </c>
-      <c r="C19" s="22" t="s">
-        <v>168</v>
-      </c>
-      <c r="D19" s="22" t="s">
-        <v>134</v>
-      </c>
-      <c r="E19" s="22" t="s">
-        <v>128</v>
-      </c>
-      <c r="G19" s="12"/>
-    </row>
-    <row r="20" spans="1:7" ht="115.2" x14ac:dyDescent="0.25">
-      <c r="A20" s="24" t="s">
-        <v>222</v>
-      </c>
-      <c r="B20" s="23" t="s">
-        <v>135</v>
-      </c>
-      <c r="C20" s="22" t="s">
-        <v>169</v>
-      </c>
-      <c r="D20" s="22" t="s">
-        <v>136</v>
-      </c>
-      <c r="E20" s="22" t="s">
-        <v>137</v>
-      </c>
-      <c r="G20" s="12"/>
-    </row>
-    <row r="21" spans="1:7" ht="115.2" x14ac:dyDescent="0.25">
-      <c r="A21" s="24" t="s">
-        <v>223</v>
-      </c>
-      <c r="B21" s="23" t="s">
-        <v>138</v>
-      </c>
-      <c r="C21" s="22" t="s">
-        <v>169</v>
-      </c>
-      <c r="D21" s="22" t="s">
-        <v>139</v>
-      </c>
-      <c r="E21" s="22" t="s">
-        <v>137</v>
-      </c>
-      <c r="G21" s="12"/>
-    </row>
-    <row r="22" spans="1:7" ht="115.2" x14ac:dyDescent="0.25">
-      <c r="A22" s="24" t="s">
-        <v>224</v>
-      </c>
-      <c r="B22" s="23" t="s">
-        <v>140</v>
-      </c>
-      <c r="C22" s="22" t="s">
-        <v>169</v>
-      </c>
-      <c r="D22" s="22" t="s">
-        <v>141</v>
-      </c>
-      <c r="E22" s="22" t="s">
-        <v>137</v>
-      </c>
-      <c r="G22" s="13"/>
-    </row>
-    <row r="23" spans="1:7" ht="115.2" x14ac:dyDescent="0.25">
-      <c r="A23" s="24" t="s">
-        <v>225</v>
-      </c>
-      <c r="B23" s="23" t="s">
-        <v>143</v>
-      </c>
-      <c r="C23" s="22" t="s">
-        <v>169</v>
-      </c>
-      <c r="D23" s="22" t="s">
-        <v>142</v>
-      </c>
-      <c r="E23" s="22" t="s">
-        <v>137</v>
-      </c>
-      <c r="G23" s="12"/>
-    </row>
-    <row r="24" spans="1:7" ht="115.2" x14ac:dyDescent="0.25">
-      <c r="A24" s="24" t="s">
-        <v>226</v>
-      </c>
-      <c r="B24" s="23" t="s">
-        <v>144</v>
-      </c>
-      <c r="C24" s="22" t="s">
-        <v>169</v>
-      </c>
-      <c r="D24" s="22" t="s">
-        <v>145</v>
-      </c>
-      <c r="E24" s="22" t="s">
-        <v>137</v>
-      </c>
-      <c r="G24" s="12"/>
-    </row>
-    <row r="25" spans="1:7" ht="115.2" x14ac:dyDescent="0.25">
-      <c r="A25" s="24" t="s">
-        <v>227</v>
-      </c>
-      <c r="B25" s="23" t="s">
-        <v>147</v>
-      </c>
-      <c r="C25" s="22" t="s">
-        <v>170</v>
-      </c>
-      <c r="D25" s="22" t="s">
-        <v>150</v>
-      </c>
-      <c r="E25" s="22" t="s">
-        <v>154</v>
-      </c>
-      <c r="G25" s="12"/>
-    </row>
-    <row r="26" spans="1:7" ht="115.2" x14ac:dyDescent="0.25">
-      <c r="A26" s="24" t="s">
-        <v>228</v>
-      </c>
-      <c r="B26" s="23" t="s">
-        <v>148</v>
-      </c>
-      <c r="C26" s="22" t="s">
-        <v>170</v>
-      </c>
-      <c r="D26" s="22" t="s">
-        <v>151</v>
-      </c>
-      <c r="E26" s="22" t="s">
-        <v>154</v>
-      </c>
-      <c r="G26" s="12"/>
-    </row>
-    <row r="27" spans="1:7" ht="115.2" x14ac:dyDescent="0.25">
-      <c r="A27" s="24" t="s">
-        <v>229</v>
-      </c>
-      <c r="B27" s="23" t="s">
-        <v>149</v>
-      </c>
-      <c r="C27" s="22" t="s">
-        <v>170</v>
-      </c>
-      <c r="D27" s="22" t="s">
-        <v>152</v>
-      </c>
-      <c r="E27" s="22" t="s">
-        <v>154</v>
-      </c>
-      <c r="G27" s="12"/>
-    </row>
-    <row r="28" spans="1:7" ht="115.2" x14ac:dyDescent="0.25">
-      <c r="A28" s="24" t="s">
-        <v>230</v>
-      </c>
-      <c r="B28" s="23" t="s">
-        <v>146</v>
-      </c>
-      <c r="C28" s="22" t="s">
-        <v>170</v>
-      </c>
-      <c r="D28" s="22" t="s">
-        <v>153</v>
-      </c>
-      <c r="E28" s="22" t="s">
-        <v>154</v>
-      </c>
-      <c r="G28" s="13"/>
-    </row>
-    <row r="29" spans="1:7" ht="115.2" x14ac:dyDescent="0.25">
-      <c r="A29" s="24" t="s">
-        <v>231</v>
-      </c>
-      <c r="B29" s="23" t="s">
-        <v>155</v>
-      </c>
-      <c r="C29" s="22" t="s">
-        <v>171</v>
-      </c>
-      <c r="D29" s="22" t="s">
-        <v>159</v>
-      </c>
-      <c r="E29" s="22" t="s">
-        <v>158</v>
-      </c>
-      <c r="G29" s="12"/>
-    </row>
-    <row r="30" spans="1:7" ht="115.2" x14ac:dyDescent="0.25">
-      <c r="A30" s="24" t="s">
-        <v>232</v>
-      </c>
-      <c r="B30" s="23" t="s">
-        <v>157</v>
-      </c>
-      <c r="C30" s="22" t="s">
-        <v>171</v>
-      </c>
-      <c r="D30" s="22" t="s">
-        <v>95</v>
-      </c>
-      <c r="E30" s="22" t="s">
-        <v>158</v>
-      </c>
-      <c r="G30" s="12"/>
-    </row>
-    <row r="31" spans="1:7" ht="115.2" x14ac:dyDescent="0.25">
-      <c r="A31" s="24" t="s">
-        <v>233</v>
-      </c>
-      <c r="B31" s="23" t="s">
-        <v>156</v>
-      </c>
-      <c r="C31" s="22" t="s">
-        <v>171</v>
-      </c>
-      <c r="D31" s="22" t="s">
-        <v>160</v>
-      </c>
-      <c r="E31" s="22" t="s">
-        <v>158</v>
-      </c>
-      <c r="G31" s="13"/>
-    </row>
-    <row r="32" spans="1:7" ht="115.2" x14ac:dyDescent="0.25">
-      <c r="A32" s="24" t="s">
-        <v>234</v>
-      </c>
-      <c r="B32" s="23" t="s">
-        <v>161</v>
-      </c>
-      <c r="C32" s="22" t="s">
-        <v>172</v>
-      </c>
-      <c r="D32" s="22" t="s">
-        <v>162</v>
-      </c>
-      <c r="E32" s="23" t="s">
-        <v>163</v>
-      </c>
-      <c r="F32" s="23"/>
-      <c r="G32" s="12"/>
-    </row>
-    <row r="33" spans="1:7" ht="115.2" x14ac:dyDescent="0.25">
-      <c r="A33" s="24" t="s">
-        <v>235</v>
-      </c>
-      <c r="B33" s="23" t="s">
-        <v>173</v>
-      </c>
-      <c r="C33" s="22" t="s">
-        <v>175</v>
-      </c>
-      <c r="D33" s="22" t="s">
-        <v>95</v>
-      </c>
-      <c r="E33" s="22" t="s">
-        <v>174</v>
-      </c>
-      <c r="G33" s="12"/>
+      <c r="B31" s="8" t="s">
+        <v>425</v>
+      </c>
+      <c r="C31" s="53" t="s">
+        <v>426</v>
+      </c>
+      <c r="D31" s="53" t="s">
+        <v>427</v>
+      </c>
+      <c r="E31" s="53" t="s">
+        <v>428</v>
+      </c>
+      <c r="F31" s="55" t="s">
+        <v>429</v>
+      </c>
+      <c r="G31" s="13" t="s">
+        <v>376</v>
+      </c>
+      <c r="H31" s="53"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -4075,270 +3987,318 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD7DED84-90B9-4A16-A04D-99BB34C75384}">
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="39.5546875" style="9" customWidth="1"/>
-    <col min="2" max="2" width="39.33203125" style="9" customWidth="1"/>
-    <col min="3" max="3" width="44.6640625" style="9" customWidth="1"/>
-    <col min="4" max="4" width="32.77734375" style="9" customWidth="1"/>
-    <col min="5" max="5" width="41.109375" style="9" customWidth="1"/>
-    <col min="6" max="6" width="38.5546875" style="9" customWidth="1"/>
-    <col min="7" max="7" width="23.33203125" style="9" customWidth="1"/>
+    <col min="2" max="2" width="17.33203125" style="9" customWidth="1"/>
+    <col min="3" max="3" width="23" style="9" customWidth="1"/>
+    <col min="4" max="4" width="17.33203125" style="9" customWidth="1"/>
+    <col min="5" max="5" width="23.21875" style="9" customWidth="1"/>
+    <col min="6" max="6" width="23.33203125" style="9" customWidth="1"/>
+    <col min="7" max="7" width="17.33203125" style="17" customWidth="1"/>
     <col min="8" max="16384" width="8.88671875" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="10"/>
-      <c r="B1" s="39" t="s">
-        <v>176</v>
-      </c>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="41"/>
+      <c r="B1" s="46" t="s">
+        <v>100</v>
+      </c>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="48"/>
       <c r="G1" s="10"/>
     </row>
-    <row r="2" spans="1:7" ht="31.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="31.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
-        <v>100</v>
-      </c>
-      <c r="B2" s="38" t="s">
-        <v>193</v>
-      </c>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="14"/>
-    </row>
-    <row r="3" spans="1:7" ht="23.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>94</v>
+      </c>
+      <c r="B2" s="45" t="s">
+        <v>103</v>
+      </c>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45"/>
+      <c r="G2" s="36"/>
+    </row>
+    <row r="3" spans="1:8" ht="23.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="11" t="s">
-        <v>104</v>
-      </c>
-      <c r="C3" s="11" t="s">
+      <c r="B3" s="58" t="s">
+        <v>95</v>
+      </c>
+      <c r="C3" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E3" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="11" t="s">
+      <c r="F3" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="11" t="s">
+      <c r="G3" s="58" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="45.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="24" t="s">
-        <v>236</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>177</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>194</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>196</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>178</v>
-      </c>
-      <c r="F4" s="8"/>
-      <c r="G4" s="12"/>
-    </row>
-    <row r="5" spans="1:7" ht="49.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="24" t="s">
-        <v>237</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>190</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>195</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>191</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>192</v>
-      </c>
-      <c r="F5" s="8"/>
-      <c r="G5" s="12"/>
-    </row>
-    <row r="6" spans="1:7" s="17" customFormat="1" ht="49.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="24" t="s">
-        <v>238</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>275</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>276</v>
-      </c>
-      <c r="D6" s="8">
-        <v>123456</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>278</v>
-      </c>
-      <c r="F6" s="8"/>
-      <c r="G6" s="12"/>
-    </row>
-    <row r="7" spans="1:7" s="17" customFormat="1" ht="49.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="24" t="s">
-        <v>239</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>269</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>271</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>267</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>268</v>
-      </c>
-      <c r="F7" s="8"/>
-      <c r="G7" s="12"/>
-    </row>
-    <row r="8" spans="1:7" s="17" customFormat="1" ht="49.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="24" t="s">
-        <v>240</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>270</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>271</v>
-      </c>
-      <c r="D8" s="8" t="s">
+    <row r="4" spans="1:8" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="56" t="s">
+        <v>132</v>
+      </c>
+      <c r="B4" s="60" t="s">
+        <v>248</v>
+      </c>
+      <c r="C4" s="60" t="s">
+        <v>249</v>
+      </c>
+      <c r="D4" s="61"/>
+      <c r="E4" s="60" t="s">
+        <v>430</v>
+      </c>
+      <c r="F4" s="60" t="s">
+        <v>379</v>
+      </c>
+      <c r="G4" s="59" t="s">
+        <v>376</v>
+      </c>
+      <c r="H4" s="57"/>
+    </row>
+    <row r="5" spans="1:8" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="56" t="s">
+        <v>133</v>
+      </c>
+      <c r="B5" s="60" t="s">
+        <v>251</v>
+      </c>
+      <c r="C5" s="60" t="s">
+        <v>252</v>
+      </c>
+      <c r="D5" s="60" t="s">
+        <v>253</v>
+      </c>
+      <c r="E5" s="60" t="s">
+        <v>254</v>
+      </c>
+      <c r="F5" s="60" t="s">
+        <v>379</v>
+      </c>
+      <c r="G5" s="59" t="s">
+        <v>376</v>
+      </c>
+      <c r="H5" s="57"/>
+    </row>
+    <row r="6" spans="1:8" s="17" customFormat="1" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="56" t="s">
+        <v>134</v>
+      </c>
+      <c r="B6" s="60" t="s">
+        <v>255</v>
+      </c>
+      <c r="C6" s="60" t="s">
+        <v>256</v>
+      </c>
+      <c r="D6" s="60" t="s">
         <v>19</v>
       </c>
-      <c r="E8" s="8" t="s">
-        <v>272</v>
-      </c>
-      <c r="F8" s="8"/>
-      <c r="G8" s="12"/>
-    </row>
-    <row r="9" spans="1:7" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="24" t="s">
-        <v>241</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>179</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>201</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>277</v>
-      </c>
-      <c r="E9" s="8" t="s">
-        <v>180</v>
-      </c>
-      <c r="F9" s="8"/>
-      <c r="G9" s="12"/>
-    </row>
-    <row r="10" spans="1:7" ht="60.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="24" t="s">
-        <v>242</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>181</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>202</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>197</v>
-      </c>
-      <c r="E10" s="8" t="s">
-        <v>182</v>
-      </c>
-      <c r="F10" s="8"/>
-      <c r="G10" s="12"/>
-    </row>
-    <row r="11" spans="1:7" ht="46.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="24" t="s">
-        <v>265</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>183</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>203</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>198</v>
-      </c>
-      <c r="E11" s="8" t="s">
-        <v>184</v>
-      </c>
-      <c r="F11" s="8"/>
-      <c r="G11" s="12"/>
-    </row>
-    <row r="12" spans="1:7" ht="66" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="24" t="s">
-        <v>266</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>185</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>204</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>199</v>
-      </c>
-      <c r="E12" s="8" t="s">
-        <v>186</v>
-      </c>
-      <c r="F12" s="8"/>
-      <c r="G12" s="12"/>
-    </row>
-    <row r="13" spans="1:7" ht="53.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="24" t="s">
-        <v>273</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>173</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>200</v>
-      </c>
-      <c r="E13" s="8" t="s">
-        <v>187</v>
-      </c>
-      <c r="F13" s="8"/>
-      <c r="G13" s="12"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="45"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="44"/>
+      <c r="E6" s="60" t="s">
+        <v>257</v>
+      </c>
+      <c r="F6" s="60" t="s">
+        <v>379</v>
+      </c>
+      <c r="G6" s="59" t="s">
+        <v>376</v>
+      </c>
+      <c r="H6" s="57"/>
+    </row>
+    <row r="7" spans="1:8" s="17" customFormat="1" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="56" t="s">
+        <v>135</v>
+      </c>
+      <c r="B7" s="60" t="s">
+        <v>258</v>
+      </c>
+      <c r="C7" s="60" t="s">
+        <v>259</v>
+      </c>
+      <c r="D7" s="60" t="s">
+        <v>246</v>
+      </c>
+      <c r="E7" s="60" t="s">
+        <v>260</v>
+      </c>
+      <c r="F7" s="60" t="s">
+        <v>379</v>
+      </c>
+      <c r="G7" s="59" t="s">
+        <v>376</v>
+      </c>
+      <c r="H7" s="57"/>
+    </row>
+    <row r="8" spans="1:8" s="17" customFormat="1" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="56" t="s">
+        <v>136</v>
+      </c>
+      <c r="B8" s="60" t="s">
+        <v>150</v>
+      </c>
+      <c r="C8" s="60" t="s">
+        <v>247</v>
+      </c>
+      <c r="D8" s="61"/>
+      <c r="E8" s="60" t="s">
+        <v>261</v>
+      </c>
+      <c r="F8" s="60" t="s">
+        <v>379</v>
+      </c>
+      <c r="G8" s="59" t="s">
+        <v>376</v>
+      </c>
+      <c r="H8" s="57"/>
+    </row>
+    <row r="9" spans="1:8" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="56" t="s">
+        <v>137</v>
+      </c>
+      <c r="B9" s="60" t="s">
+        <v>431</v>
+      </c>
+      <c r="C9" s="60" t="s">
+        <v>432</v>
+      </c>
+      <c r="D9" s="61"/>
+      <c r="E9" s="60" t="s">
+        <v>433</v>
+      </c>
+      <c r="F9" s="60" t="s">
+        <v>379</v>
+      </c>
+      <c r="G9" s="59" t="s">
+        <v>376</v>
+      </c>
+      <c r="H9" s="57"/>
+    </row>
+    <row r="10" spans="1:8" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="56" t="s">
+        <v>138</v>
+      </c>
+      <c r="B10" s="60" t="s">
+        <v>434</v>
+      </c>
+      <c r="C10" s="60" t="s">
+        <v>435</v>
+      </c>
+      <c r="D10" s="60" t="s">
+        <v>253</v>
+      </c>
+      <c r="E10" s="60" t="s">
+        <v>147</v>
+      </c>
+      <c r="F10" s="60" t="s">
+        <v>379</v>
+      </c>
+      <c r="G10" s="59" t="s">
+        <v>376</v>
+      </c>
+      <c r="H10" s="57"/>
+    </row>
+    <row r="11" spans="1:8" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="56" t="s">
+        <v>145</v>
+      </c>
+      <c r="B11" s="60" t="s">
+        <v>436</v>
+      </c>
+      <c r="C11" s="60" t="s">
+        <v>437</v>
+      </c>
+      <c r="D11" s="60" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" s="60" t="s">
+        <v>148</v>
+      </c>
+      <c r="F11" s="60" t="s">
+        <v>379</v>
+      </c>
+      <c r="G11" s="59" t="s">
+        <v>376</v>
+      </c>
+      <c r="H11" s="57"/>
+    </row>
+    <row r="12" spans="1:8" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="56" t="s">
+        <v>146</v>
+      </c>
+      <c r="B12" s="60" t="s">
+        <v>438</v>
+      </c>
+      <c r="C12" s="60" t="s">
+        <v>439</v>
+      </c>
+      <c r="D12" s="60" t="s">
+        <v>246</v>
+      </c>
+      <c r="E12" s="60" t="s">
+        <v>440</v>
+      </c>
+      <c r="F12" s="60" t="s">
+        <v>379</v>
+      </c>
+      <c r="G12" s="59" t="s">
+        <v>376</v>
+      </c>
+      <c r="H12" s="57"/>
+    </row>
+    <row r="13" spans="1:8" ht="65.400000000000006" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="56" t="s">
+        <v>149</v>
+      </c>
+      <c r="B13" s="60" t="s">
+        <v>150</v>
+      </c>
+      <c r="C13" s="60" t="s">
+        <v>247</v>
+      </c>
+      <c r="D13" s="61"/>
+      <c r="E13" s="60" t="s">
+        <v>151</v>
+      </c>
+      <c r="F13" s="60" t="s">
+        <v>379</v>
+      </c>
+      <c r="G13" s="59" t="s">
+        <v>376</v>
+      </c>
+      <c r="H13" s="57"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="39"/>
+      <c r="B14" s="38"/>
+      <c r="C14" s="38"/>
+      <c r="D14" s="38"/>
+      <c r="E14" s="38"/>
+      <c r="F14" s="38"/>
+      <c r="G14" s="38"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="38"/>
     </row>
     <row r="17" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D17" s="9" t="s">
-        <v>188</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -4353,491 +4313,627 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F3882EB-2D0D-4713-A9A3-9827FB829CB6}">
-  <dimension ref="A1:G34"/>
+  <dimension ref="A1:H34"/>
   <sheetViews>
-    <sheetView zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView topLeftCell="C22" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="39.5546875" style="25" customWidth="1"/>
-    <col min="2" max="2" width="39.33203125" style="25" customWidth="1"/>
-    <col min="3" max="3" width="44.6640625" style="25" customWidth="1"/>
-    <col min="4" max="4" width="32.77734375" style="25" customWidth="1"/>
-    <col min="5" max="5" width="41.109375" style="25" customWidth="1"/>
-    <col min="6" max="6" width="38.5546875" style="25" customWidth="1"/>
-    <col min="7" max="7" width="23.33203125" style="25" customWidth="1"/>
+    <col min="2" max="2" width="26.6640625" style="25" customWidth="1"/>
+    <col min="3" max="3" width="39.33203125" style="25" customWidth="1"/>
+    <col min="4" max="4" width="17.33203125" style="25" customWidth="1"/>
+    <col min="5" max="6" width="28.109375" style="25" customWidth="1"/>
+    <col min="7" max="7" width="17.33203125" style="25" customWidth="1"/>
     <col min="8" max="16384" width="8.88671875" style="25"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="28"/>
-      <c r="B1" s="42" t="s">
-        <v>243</v>
-      </c>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="30"/>
-    </row>
-    <row r="2" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="31" t="s">
-        <v>100</v>
-      </c>
-      <c r="B2" s="36" t="s">
-        <v>364</v>
-      </c>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="33"/>
-    </row>
-    <row r="3" spans="1:7" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="11" t="s">
+    <row r="1" spans="1:8" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="65"/>
+      <c r="B1" s="66" t="s">
+        <v>139</v>
+      </c>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="69"/>
+    </row>
+    <row r="2" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="70" t="s">
+        <v>94</v>
+      </c>
+      <c r="B2" s="71" t="s">
+        <v>236</v>
+      </c>
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="71"/>
+      <c r="F2" s="72"/>
+      <c r="G2" s="73"/>
+    </row>
+    <row r="3" spans="1:8" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="74" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="11" t="s">
-        <v>104</v>
-      </c>
-      <c r="C3" s="11" t="s">
+      <c r="B3" s="75" t="s">
+        <v>95</v>
+      </c>
+      <c r="C3" s="75" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="75" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E3" s="75" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="11" t="s">
+      <c r="F3" s="75" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="11" t="s">
+      <c r="G3" s="75" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="26" t="s">
-        <v>244</v>
-      </c>
-      <c r="B4" s="27" t="s">
+    <row r="4" spans="1:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="76" t="s">
+        <v>140</v>
+      </c>
+      <c r="B4" s="60" t="s">
+        <v>248</v>
+      </c>
+      <c r="C4" s="60" t="s">
         <v>249</v>
       </c>
-      <c r="C4" s="27" t="s">
-        <v>250</v>
-      </c>
-      <c r="D4" s="27" t="s">
+      <c r="D4" s="61"/>
+      <c r="E4" s="60" t="s">
+        <v>307</v>
+      </c>
+      <c r="F4" s="60" t="s">
+        <v>442</v>
+      </c>
+      <c r="G4" s="78" t="s">
+        <v>367</v>
+      </c>
+      <c r="H4" s="62"/>
+    </row>
+    <row r="5" spans="1:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="76" t="s">
+        <v>141</v>
+      </c>
+      <c r="B5" s="60" t="s">
         <v>251</v>
       </c>
-      <c r="E4" s="27" t="s">
+      <c r="C5" s="60" t="s">
         <v>252</v>
       </c>
-      <c r="F4" s="27"/>
-      <c r="G4" s="46"/>
-    </row>
-    <row r="5" spans="1:7" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="26" t="s">
-        <v>245</v>
-      </c>
-      <c r="B5" s="27" t="s">
+      <c r="D5" s="60" t="s">
         <v>253</v>
       </c>
-      <c r="C5" s="27" t="s">
-        <v>254</v>
-      </c>
-      <c r="D5" s="27" t="s">
+      <c r="E5" s="60" t="s">
+        <v>239</v>
+      </c>
+      <c r="F5" s="60" t="s">
+        <v>398</v>
+      </c>
+      <c r="G5" s="78" t="s">
+        <v>367</v>
+      </c>
+      <c r="H5" s="62"/>
+    </row>
+    <row r="6" spans="1:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="76" t="s">
+        <v>142</v>
+      </c>
+      <c r="B6" s="60" t="s">
         <v>255</v>
       </c>
-      <c r="E5" s="27" t="s">
+      <c r="C6" s="60" t="s">
         <v>256</v>
       </c>
-      <c r="F5" s="27"/>
-      <c r="G5" s="46"/>
-    </row>
-    <row r="6" spans="1:7" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="26" t="s">
-        <v>246</v>
-      </c>
-      <c r="B6" s="27" t="s">
-        <v>257</v>
-      </c>
-      <c r="C6" s="27" t="s">
-        <v>258</v>
-      </c>
-      <c r="D6" s="27" t="s">
-        <v>259</v>
-      </c>
-      <c r="E6" s="27" t="s">
-        <v>260</v>
-      </c>
-      <c r="F6" s="27"/>
-      <c r="G6" s="46"/>
-    </row>
-    <row r="7" spans="1:7" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="26" t="s">
-        <v>247</v>
-      </c>
-      <c r="B7" s="27" t="s">
-        <v>261</v>
-      </c>
-      <c r="C7" s="27" t="s">
-        <v>262</v>
-      </c>
-      <c r="D7" s="27" t="s">
-        <v>263</v>
-      </c>
-      <c r="E7" s="27" t="s">
-        <v>264</v>
-      </c>
-      <c r="F7" s="27"/>
-      <c r="G7" s="46"/>
-    </row>
-    <row r="8" spans="1:7" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="26" t="s">
-        <v>343</v>
-      </c>
-      <c r="B8" s="27" t="s">
-        <v>362</v>
-      </c>
-      <c r="C8" s="27" t="s">
-        <v>279</v>
-      </c>
-      <c r="D8" s="27"/>
-      <c r="E8" s="27" t="s">
-        <v>280</v>
-      </c>
-      <c r="G8" s="47"/>
-    </row>
-    <row r="9" spans="1:7" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="26" t="s">
-        <v>344</v>
-      </c>
-      <c r="B9" s="27" t="s">
-        <v>281</v>
-      </c>
-      <c r="C9" s="27" t="s">
-        <v>282</v>
-      </c>
-      <c r="D9" s="27" t="s">
-        <v>283</v>
-      </c>
-      <c r="E9" s="27" t="s">
-        <v>284</v>
-      </c>
-      <c r="G9" s="47"/>
-    </row>
-    <row r="10" spans="1:7" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="26" t="s">
-        <v>345</v>
-      </c>
-      <c r="B10" s="27" t="s">
-        <v>285</v>
-      </c>
-      <c r="C10" s="27" t="s">
-        <v>286</v>
-      </c>
-      <c r="D10" s="27" t="s">
-        <v>287</v>
-      </c>
-      <c r="E10" s="27" t="s">
-        <v>288</v>
-      </c>
-      <c r="G10" s="47"/>
-    </row>
-    <row r="11" spans="1:7" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="26" t="s">
-        <v>346</v>
-      </c>
-      <c r="B11" s="27" t="s">
-        <v>289</v>
-      </c>
-      <c r="C11" s="27" t="s">
-        <v>290</v>
-      </c>
-      <c r="D11" s="27"/>
-      <c r="E11" s="27" t="s">
-        <v>291</v>
-      </c>
-      <c r="G11" s="47"/>
-    </row>
-    <row r="12" spans="1:7" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="26" t="s">
-        <v>347</v>
-      </c>
-      <c r="B12" s="27" t="s">
-        <v>292</v>
-      </c>
-      <c r="C12" s="27" t="s">
-        <v>293</v>
-      </c>
-      <c r="D12" s="27"/>
-      <c r="E12" s="27" t="s">
-        <v>294</v>
-      </c>
-      <c r="G12" s="47"/>
-    </row>
-    <row r="13" spans="1:7" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="26" t="s">
-        <v>348</v>
-      </c>
-      <c r="B13" s="27" t="s">
-        <v>295</v>
-      </c>
-      <c r="C13" s="27" t="s">
-        <v>296</v>
-      </c>
-      <c r="D13" s="27" t="s">
-        <v>297</v>
-      </c>
-      <c r="E13" s="27" t="s">
-        <v>298</v>
-      </c>
-      <c r="G13" s="47"/>
-    </row>
-    <row r="14" spans="1:7" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="26" t="s">
-        <v>349</v>
-      </c>
-      <c r="B14" s="27" t="s">
-        <v>299</v>
-      </c>
-      <c r="C14" s="27" t="s">
-        <v>300</v>
-      </c>
-      <c r="D14" s="27" t="s">
-        <v>301</v>
-      </c>
-      <c r="E14" s="27" t="s">
-        <v>302</v>
-      </c>
-      <c r="G14" s="47"/>
-    </row>
-    <row r="15" spans="1:7" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="26" t="s">
-        <v>350</v>
-      </c>
-      <c r="B15" s="27" t="s">
-        <v>303</v>
-      </c>
-      <c r="C15" s="27" t="s">
-        <v>304</v>
-      </c>
-      <c r="D15" s="27"/>
-      <c r="E15" s="27" t="s">
-        <v>305</v>
-      </c>
-      <c r="G15" s="47"/>
-    </row>
-    <row r="16" spans="1:7" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="26" t="s">
-        <v>351</v>
-      </c>
-      <c r="B16" s="27" t="s">
-        <v>306</v>
-      </c>
-      <c r="C16" s="27" t="s">
-        <v>307</v>
-      </c>
-      <c r="D16" s="27" t="s">
-        <v>308</v>
-      </c>
-      <c r="E16" s="27" t="s">
-        <v>309</v>
-      </c>
-      <c r="G16" s="47"/>
-    </row>
-    <row r="17" spans="1:7" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="26" t="s">
-        <v>352</v>
-      </c>
-      <c r="B17" s="27" t="s">
-        <v>310</v>
-      </c>
-      <c r="C17" s="27" t="s">
-        <v>311</v>
-      </c>
-      <c r="D17" s="27" t="s">
-        <v>312</v>
-      </c>
-      <c r="E17" s="27" t="s">
-        <v>302</v>
-      </c>
-      <c r="G17" s="47"/>
-    </row>
-    <row r="18" spans="1:7" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="26" t="s">
-        <v>353</v>
-      </c>
-      <c r="B18" s="27" t="s">
-        <v>313</v>
-      </c>
-      <c r="C18" s="27" t="s">
-        <v>314</v>
-      </c>
-      <c r="D18" s="27" t="s">
-        <v>315</v>
-      </c>
-      <c r="E18" s="27" t="s">
-        <v>316</v>
-      </c>
-      <c r="G18" s="47"/>
-    </row>
-    <row r="19" spans="1:7" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="26" t="s">
-        <v>354</v>
-      </c>
-      <c r="B19" s="27" t="s">
-        <v>317</v>
-      </c>
-      <c r="C19" s="27" t="s">
-        <v>318</v>
-      </c>
-      <c r="D19" s="27"/>
-      <c r="E19" s="27" t="s">
-        <v>319</v>
-      </c>
-      <c r="G19" s="47"/>
-    </row>
-    <row r="20" spans="1:7" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="26" t="s">
-        <v>355</v>
-      </c>
-      <c r="B20" s="27" t="s">
-        <v>320</v>
-      </c>
-      <c r="C20" s="27" t="s">
-        <v>321</v>
-      </c>
-      <c r="D20" s="27" t="s">
-        <v>322</v>
-      </c>
-      <c r="E20" s="27" t="s">
-        <v>323</v>
-      </c>
-      <c r="G20" s="47"/>
-    </row>
-    <row r="21" spans="1:7" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="26" t="s">
-        <v>356</v>
-      </c>
-      <c r="B21" s="27" t="s">
-        <v>324</v>
-      </c>
-      <c r="C21" s="27" t="s">
-        <v>325</v>
-      </c>
-      <c r="D21" s="27" t="s">
-        <v>326</v>
-      </c>
-      <c r="E21" s="27" t="s">
-        <v>327</v>
-      </c>
-      <c r="G21" s="47"/>
-    </row>
-    <row r="22" spans="1:7" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="26" t="s">
-        <v>357</v>
-      </c>
-      <c r="B22" s="27" t="s">
-        <v>328</v>
-      </c>
-      <c r="C22" s="27" t="s">
-        <v>329</v>
-      </c>
-      <c r="D22" s="27"/>
-      <c r="E22" s="27" t="s">
-        <v>330</v>
-      </c>
-      <c r="G22" s="47"/>
-    </row>
-    <row r="23" spans="1:7" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="26" t="s">
-        <v>358</v>
-      </c>
-      <c r="B23" s="27" t="s">
-        <v>331</v>
-      </c>
-      <c r="C23" s="27" t="s">
-        <v>325</v>
-      </c>
-      <c r="D23" s="27" t="s">
-        <v>332</v>
-      </c>
-      <c r="E23" s="27" t="s">
-        <v>333</v>
-      </c>
-      <c r="G23" s="47"/>
-    </row>
-    <row r="24" spans="1:7" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="26" t="s">
-        <v>359</v>
-      </c>
-      <c r="B24" s="27" t="s">
-        <v>334</v>
-      </c>
-      <c r="C24" s="27" t="s">
-        <v>335</v>
-      </c>
-      <c r="D24" s="27"/>
-      <c r="E24" s="27" t="s">
-        <v>336</v>
-      </c>
-      <c r="G24" s="47"/>
-    </row>
-    <row r="25" spans="1:7" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="26" t="s">
-        <v>360</v>
-      </c>
-      <c r="B25" s="27" t="s">
-        <v>337</v>
-      </c>
-      <c r="C25" s="27" t="s">
-        <v>338</v>
-      </c>
-      <c r="D25" s="27" t="s">
-        <v>339</v>
-      </c>
-      <c r="E25" s="27" t="s">
-        <v>340</v>
-      </c>
-      <c r="G25" s="47"/>
-    </row>
-    <row r="26" spans="1:7" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="26" t="s">
-        <v>361</v>
-      </c>
-      <c r="B26" s="27" t="s">
-        <v>337</v>
-      </c>
-      <c r="C26" s="27" t="s">
-        <v>338</v>
-      </c>
-      <c r="D26" s="27" t="s">
-        <v>341</v>
-      </c>
-      <c r="E26" s="27" t="s">
-        <v>342</v>
-      </c>
-      <c r="G26" s="47"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B27" s="27"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D6" s="60" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="60" t="s">
+        <v>240</v>
+      </c>
+      <c r="F6" s="60" t="s">
+        <v>371</v>
+      </c>
+      <c r="G6" s="78" t="s">
+        <v>367</v>
+      </c>
+      <c r="H6" s="62"/>
+    </row>
+    <row r="7" spans="1:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="76" t="s">
+        <v>143</v>
+      </c>
+      <c r="B7" s="60" t="s">
+        <v>443</v>
+      </c>
+      <c r="C7" s="60" t="s">
+        <v>444</v>
+      </c>
+      <c r="D7" s="60" t="s">
+        <v>445</v>
+      </c>
+      <c r="E7" s="60" t="s">
+        <v>446</v>
+      </c>
+      <c r="F7" s="60" t="s">
+        <v>447</v>
+      </c>
+      <c r="G7" s="59" t="s">
+        <v>376</v>
+      </c>
+      <c r="H7" s="62"/>
+    </row>
+    <row r="8" spans="1:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="76" t="s">
+        <v>216</v>
+      </c>
+      <c r="B8" s="60" t="s">
+        <v>448</v>
+      </c>
+      <c r="C8" s="60" t="s">
+        <v>152</v>
+      </c>
+      <c r="D8" s="60"/>
+      <c r="E8" s="60" t="s">
+        <v>153</v>
+      </c>
+      <c r="F8" s="60" t="s">
+        <v>441</v>
+      </c>
+      <c r="G8" s="59" t="s">
+        <v>376</v>
+      </c>
+      <c r="H8" s="62"/>
+    </row>
+    <row r="9" spans="1:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="76" t="s">
+        <v>217</v>
+      </c>
+      <c r="B9" s="60" t="s">
+        <v>154</v>
+      </c>
+      <c r="C9" s="60" t="s">
+        <v>155</v>
+      </c>
+      <c r="D9" s="60" t="s">
+        <v>156</v>
+      </c>
+      <c r="E9" s="60" t="s">
+        <v>157</v>
+      </c>
+      <c r="F9" s="60" t="s">
+        <v>441</v>
+      </c>
+      <c r="G9" s="59" t="s">
+        <v>376</v>
+      </c>
+      <c r="H9" s="62"/>
+    </row>
+    <row r="10" spans="1:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="76" t="s">
+        <v>218</v>
+      </c>
+      <c r="B10" s="60" t="s">
+        <v>158</v>
+      </c>
+      <c r="C10" s="60" t="s">
+        <v>159</v>
+      </c>
+      <c r="D10" s="60" t="s">
+        <v>160</v>
+      </c>
+      <c r="E10" s="60" t="s">
+        <v>161</v>
+      </c>
+      <c r="F10" s="60" t="s">
+        <v>441</v>
+      </c>
+      <c r="G10" s="59" t="s">
+        <v>376</v>
+      </c>
+      <c r="H10" s="62"/>
+    </row>
+    <row r="11" spans="1:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="76" t="s">
+        <v>219</v>
+      </c>
+      <c r="B11" s="60" t="s">
+        <v>162</v>
+      </c>
+      <c r="C11" s="60" t="s">
+        <v>163</v>
+      </c>
+      <c r="D11" s="60"/>
+      <c r="E11" s="60" t="s">
+        <v>164</v>
+      </c>
+      <c r="F11" s="60" t="s">
+        <v>441</v>
+      </c>
+      <c r="G11" s="59" t="s">
+        <v>376</v>
+      </c>
+      <c r="H11" s="62"/>
+    </row>
+    <row r="12" spans="1:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="76" t="s">
+        <v>220</v>
+      </c>
+      <c r="B12" s="60" t="s">
+        <v>165</v>
+      </c>
+      <c r="C12" s="60" t="s">
+        <v>166</v>
+      </c>
+      <c r="D12" s="60"/>
+      <c r="E12" s="60" t="s">
+        <v>167</v>
+      </c>
+      <c r="F12" s="60" t="s">
+        <v>441</v>
+      </c>
+      <c r="G12" s="59" t="s">
+        <v>376</v>
+      </c>
+      <c r="H12" s="62"/>
+    </row>
+    <row r="13" spans="1:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="76" t="s">
+        <v>221</v>
+      </c>
+      <c r="B13" s="60" t="s">
+        <v>168</v>
+      </c>
+      <c r="C13" s="60" t="s">
+        <v>169</v>
+      </c>
+      <c r="D13" s="60" t="s">
+        <v>170</v>
+      </c>
+      <c r="E13" s="60" t="s">
+        <v>171</v>
+      </c>
+      <c r="F13" s="60" t="s">
+        <v>441</v>
+      </c>
+      <c r="G13" s="59" t="s">
+        <v>376</v>
+      </c>
+      <c r="H13" s="62"/>
+    </row>
+    <row r="14" spans="1:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="76" t="s">
+        <v>222</v>
+      </c>
+      <c r="B14" s="60" t="s">
+        <v>172</v>
+      </c>
+      <c r="C14" s="60" t="s">
+        <v>173</v>
+      </c>
+      <c r="D14" s="60" t="s">
+        <v>174</v>
+      </c>
+      <c r="E14" s="60" t="s">
+        <v>175</v>
+      </c>
+      <c r="F14" s="60" t="s">
+        <v>441</v>
+      </c>
+      <c r="G14" s="59" t="s">
+        <v>376</v>
+      </c>
+      <c r="H14" s="62"/>
+    </row>
+    <row r="15" spans="1:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="76" t="s">
+        <v>223</v>
+      </c>
+      <c r="B15" s="60" t="s">
+        <v>176</v>
+      </c>
+      <c r="C15" s="60" t="s">
+        <v>177</v>
+      </c>
+      <c r="D15" s="60"/>
+      <c r="E15" s="60" t="s">
+        <v>178</v>
+      </c>
+      <c r="F15" s="60" t="s">
+        <v>441</v>
+      </c>
+      <c r="G15" s="59" t="s">
+        <v>376</v>
+      </c>
+      <c r="H15" s="62"/>
+    </row>
+    <row r="16" spans="1:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="76" t="s">
+        <v>224</v>
+      </c>
+      <c r="B16" s="60" t="s">
+        <v>179</v>
+      </c>
+      <c r="C16" s="60" t="s">
+        <v>180</v>
+      </c>
+      <c r="D16" s="60" t="s">
+        <v>181</v>
+      </c>
+      <c r="E16" s="60" t="s">
+        <v>182</v>
+      </c>
+      <c r="F16" s="60" t="s">
+        <v>441</v>
+      </c>
+      <c r="G16" s="59" t="s">
+        <v>376</v>
+      </c>
+      <c r="H16" s="62"/>
+    </row>
+    <row r="17" spans="1:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="76" t="s">
+        <v>225</v>
+      </c>
+      <c r="B17" s="60" t="s">
+        <v>183</v>
+      </c>
+      <c r="C17" s="60" t="s">
+        <v>184</v>
+      </c>
+      <c r="D17" s="60" t="s">
+        <v>185</v>
+      </c>
+      <c r="E17" s="60" t="s">
+        <v>175</v>
+      </c>
+      <c r="F17" s="60" t="s">
+        <v>441</v>
+      </c>
+      <c r="G17" s="59" t="s">
+        <v>376</v>
+      </c>
+      <c r="H17" s="62"/>
+    </row>
+    <row r="18" spans="1:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="76" t="s">
+        <v>226</v>
+      </c>
+      <c r="B18" s="60" t="s">
+        <v>186</v>
+      </c>
+      <c r="C18" s="60" t="s">
+        <v>187</v>
+      </c>
+      <c r="D18" s="60" t="s">
+        <v>188</v>
+      </c>
+      <c r="E18" s="60" t="s">
+        <v>189</v>
+      </c>
+      <c r="F18" s="60" t="s">
+        <v>441</v>
+      </c>
+      <c r="G18" s="59" t="s">
+        <v>376</v>
+      </c>
+      <c r="H18" s="62"/>
+    </row>
+    <row r="19" spans="1:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="76" t="s">
+        <v>227</v>
+      </c>
+      <c r="B19" s="60" t="s">
+        <v>190</v>
+      </c>
+      <c r="C19" s="60" t="s">
+        <v>191</v>
+      </c>
+      <c r="D19" s="60"/>
+      <c r="E19" s="60" t="s">
+        <v>192</v>
+      </c>
+      <c r="F19" s="60" t="s">
+        <v>441</v>
+      </c>
+      <c r="G19" s="59" t="s">
+        <v>376</v>
+      </c>
+      <c r="H19" s="62"/>
+    </row>
+    <row r="20" spans="1:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="76" t="s">
+        <v>228</v>
+      </c>
+      <c r="B20" s="60" t="s">
+        <v>193</v>
+      </c>
+      <c r="C20" s="60" t="s">
+        <v>194</v>
+      </c>
+      <c r="D20" s="60" t="s">
+        <v>195</v>
+      </c>
+      <c r="E20" s="60" t="s">
+        <v>196</v>
+      </c>
+      <c r="F20" s="60" t="s">
+        <v>441</v>
+      </c>
+      <c r="G20" s="59" t="s">
+        <v>376</v>
+      </c>
+      <c r="H20" s="62"/>
+    </row>
+    <row r="21" spans="1:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="76" t="s">
+        <v>229</v>
+      </c>
+      <c r="B21" s="60" t="s">
+        <v>197</v>
+      </c>
+      <c r="C21" s="60" t="s">
+        <v>198</v>
+      </c>
+      <c r="D21" s="60" t="s">
+        <v>199</v>
+      </c>
+      <c r="E21" s="60" t="s">
+        <v>200</v>
+      </c>
+      <c r="F21" s="60" t="s">
+        <v>441</v>
+      </c>
+      <c r="G21" s="59" t="s">
+        <v>376</v>
+      </c>
+      <c r="H21" s="62"/>
+    </row>
+    <row r="22" spans="1:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="76" t="s">
+        <v>230</v>
+      </c>
+      <c r="B22" s="60" t="s">
+        <v>201</v>
+      </c>
+      <c r="C22" s="60" t="s">
+        <v>202</v>
+      </c>
+      <c r="D22" s="60"/>
+      <c r="E22" s="60" t="s">
+        <v>203</v>
+      </c>
+      <c r="F22" s="60" t="s">
+        <v>441</v>
+      </c>
+      <c r="G22" s="59" t="s">
+        <v>376</v>
+      </c>
+      <c r="H22" s="62"/>
+    </row>
+    <row r="23" spans="1:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="76" t="s">
+        <v>231</v>
+      </c>
+      <c r="B23" s="60" t="s">
+        <v>204</v>
+      </c>
+      <c r="C23" s="60" t="s">
+        <v>198</v>
+      </c>
+      <c r="D23" s="60" t="s">
+        <v>205</v>
+      </c>
+      <c r="E23" s="60" t="s">
+        <v>206</v>
+      </c>
+      <c r="F23" s="60" t="s">
+        <v>441</v>
+      </c>
+      <c r="G23" s="59" t="s">
+        <v>376</v>
+      </c>
+      <c r="H23" s="62"/>
+    </row>
+    <row r="24" spans="1:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="76" t="s">
+        <v>232</v>
+      </c>
+      <c r="B24" s="60" t="s">
+        <v>207</v>
+      </c>
+      <c r="C24" s="60" t="s">
+        <v>208</v>
+      </c>
+      <c r="D24" s="60"/>
+      <c r="E24" s="60" t="s">
+        <v>209</v>
+      </c>
+      <c r="F24" s="60" t="s">
+        <v>441</v>
+      </c>
+      <c r="G24" s="59" t="s">
+        <v>376</v>
+      </c>
+      <c r="H24" s="62"/>
+    </row>
+    <row r="25" spans="1:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="76" t="s">
+        <v>233</v>
+      </c>
+      <c r="B25" s="60" t="s">
+        <v>210</v>
+      </c>
+      <c r="C25" s="60" t="s">
+        <v>211</v>
+      </c>
+      <c r="D25" s="60" t="s">
+        <v>212</v>
+      </c>
+      <c r="E25" s="60" t="s">
+        <v>213</v>
+      </c>
+      <c r="F25" s="60" t="s">
+        <v>441</v>
+      </c>
+      <c r="G25" s="59" t="s">
+        <v>376</v>
+      </c>
+      <c r="H25" s="62"/>
+    </row>
+    <row r="26" spans="1:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="76" t="s">
+        <v>234</v>
+      </c>
+      <c r="B26" s="60" t="s">
+        <v>210</v>
+      </c>
+      <c r="C26" s="60" t="s">
+        <v>211</v>
+      </c>
+      <c r="D26" s="60" t="s">
+        <v>214</v>
+      </c>
+      <c r="E26" s="60" t="s">
+        <v>215</v>
+      </c>
+      <c r="F26" s="60" t="s">
+        <v>441</v>
+      </c>
+      <c r="G26" s="59" t="s">
+        <v>376</v>
+      </c>
+      <c r="H26" s="62"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B27" s="63"/>
+      <c r="C27" s="64"/>
+      <c r="D27" s="64"/>
+      <c r="E27" s="64"/>
+      <c r="F27" s="64"/>
+      <c r="G27" s="64"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B28" s="27"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B29" s="27"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B30" s="27"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B31" s="27"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B32" s="27"/>
     </row>
     <row r="33" spans="2:2" x14ac:dyDescent="0.3">
@@ -4861,8 +4957,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{192D55C4-564B-4966-A0D2-89560B8CC9B4}">
   <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView topLeftCell="D1" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -4872,40 +4968,40 @@
     <col min="3" max="3" width="44.6640625" customWidth="1"/>
     <col min="4" max="4" width="32.77734375" customWidth="1"/>
     <col min="5" max="5" width="41.109375" customWidth="1"/>
-    <col min="6" max="6" width="38.5546875" customWidth="1"/>
-    <col min="7" max="7" width="23.33203125" customWidth="1"/>
+    <col min="6" max="6" width="27.77734375" customWidth="1"/>
+    <col min="7" max="7" width="19.5546875" style="82" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="28"/>
-      <c r="B1" s="42" t="s">
-        <v>363</v>
-      </c>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
+      <c r="B1" s="49" t="s">
+        <v>235</v>
+      </c>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
       <c r="F1" s="29"/>
-      <c r="G1" s="30"/>
+      <c r="G1" s="37"/>
     </row>
     <row r="2" spans="1:7" ht="29.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="31" t="s">
-        <v>100</v>
-      </c>
-      <c r="B2" s="36" t="s">
-        <v>248</v>
-      </c>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
+        <v>94</v>
+      </c>
+      <c r="B2" s="43" t="s">
+        <v>144</v>
+      </c>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
       <c r="F2" s="32"/>
-      <c r="G2" s="33"/>
+      <c r="G2" s="35"/>
     </row>
     <row r="3" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="C3" s="11" t="s">
         <v>3</v>
@@ -4916,304 +5012,368 @@
       <c r="E3" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="11" t="s">
+      <c r="F3" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="11" t="s">
+      <c r="G3" s="58" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="26" t="s">
-        <v>405</v>
-      </c>
-      <c r="B4" s="27" t="s">
+        <v>277</v>
+      </c>
+      <c r="B4" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="C4" s="27" t="s">
+      <c r="C4" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="D4" s="27"/>
-      <c r="E4" s="27" t="s">
-        <v>365</v>
-      </c>
-      <c r="F4" s="27"/>
-      <c r="G4" s="27"/>
-    </row>
-    <row r="5" spans="1:7" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D4" s="8"/>
+      <c r="E4" s="85" t="s">
+        <v>237</v>
+      </c>
+      <c r="F4" s="83" t="s">
+        <v>449</v>
+      </c>
+      <c r="G4" s="80" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="26" t="s">
-        <v>406</v>
-      </c>
-      <c r="B5" s="27" t="s">
+        <v>278</v>
+      </c>
+      <c r="B5" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="C5" s="27" t="s">
-        <v>366</v>
-      </c>
-      <c r="D5" s="27" t="s">
+      <c r="C5" s="8" t="s">
+        <v>238</v>
+      </c>
+      <c r="D5" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="E5" s="27" t="s">
+      <c r="E5" s="85" t="s">
+        <v>239</v>
+      </c>
+      <c r="F5" s="83" t="s">
+        <v>239</v>
+      </c>
+      <c r="G5" s="80" t="s">
         <v>367</v>
       </c>
-      <c r="F5" s="27"/>
-      <c r="G5" s="27"/>
-    </row>
-    <row r="6" spans="1:7" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:7" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="26" t="s">
-        <v>407</v>
-      </c>
-      <c r="B6" s="27" t="s">
+        <v>279</v>
+      </c>
+      <c r="B6" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="C6" s="27" t="s">
+      <c r="C6" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="D6" s="27" t="s">
+      <c r="D6" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="E6" s="27" t="s">
-        <v>368</v>
-      </c>
-      <c r="F6" s="27"/>
-      <c r="G6" s="27"/>
-    </row>
-    <row r="7" spans="1:7" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E6" s="85" t="s">
+        <v>240</v>
+      </c>
+      <c r="F6" s="83" t="s">
+        <v>371</v>
+      </c>
+      <c r="G6" s="80" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="26" t="s">
-        <v>408</v>
-      </c>
-      <c r="B7" s="27" t="s">
-        <v>369</v>
-      </c>
-      <c r="C7" s="27" t="s">
-        <v>370</v>
-      </c>
-      <c r="D7" s="27">
+        <v>280</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>241</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>242</v>
+      </c>
+      <c r="D7" s="8">
         <v>128</v>
       </c>
-      <c r="E7" s="27" t="s">
-        <v>371</v>
-      </c>
-      <c r="F7" s="27"/>
-      <c r="G7" s="27"/>
-    </row>
-    <row r="8" spans="1:7" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E7" s="85" t="s">
+        <v>243</v>
+      </c>
+      <c r="F7" s="83" t="s">
+        <v>450</v>
+      </c>
+      <c r="G7" s="79" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="26" t="s">
-        <v>409</v>
-      </c>
-      <c r="B8" s="27" t="s">
-        <v>372</v>
-      </c>
-      <c r="C8" s="27" t="s">
-        <v>373</v>
-      </c>
-      <c r="D8" s="27" t="s">
-        <v>374</v>
-      </c>
-      <c r="E8" s="27" t="s">
+        <v>281</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>244</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="E8" s="85" t="s">
+        <v>239</v>
+      </c>
+      <c r="F8" s="84" t="s">
+        <v>239</v>
+      </c>
+      <c r="G8" s="81" t="s">
         <v>367</v>
       </c>
-      <c r="F8" s="27"/>
-      <c r="G8" s="27"/>
-    </row>
-    <row r="9" spans="1:7" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:7" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="26" t="s">
-        <v>410</v>
-      </c>
-      <c r="B9" s="27" t="s">
+        <v>282</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>247</v>
+      </c>
+      <c r="D9" s="8"/>
+      <c r="E9" s="85" t="s">
+        <v>239</v>
+      </c>
+      <c r="F9" s="83" t="s">
+        <v>398</v>
+      </c>
+      <c r="G9" s="80" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="26" t="s">
+        <v>283</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>248</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>249</v>
+      </c>
+      <c r="D10" s="8"/>
+      <c r="E10" s="85" t="s">
+        <v>250</v>
+      </c>
+      <c r="F10" s="83" t="s">
+        <v>441</v>
+      </c>
+      <c r="G10" s="79" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="26" t="s">
+        <v>284</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>251</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>252</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>253</v>
+      </c>
+      <c r="E11" s="85" t="s">
+        <v>254</v>
+      </c>
+      <c r="F11" s="83" t="s">
+        <v>441</v>
+      </c>
+      <c r="G11" s="79" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="26" t="s">
+        <v>285</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>255</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E12" s="85" t="s">
+        <v>257</v>
+      </c>
+      <c r="F12" s="83" t="s">
+        <v>441</v>
+      </c>
+      <c r="G12" s="79" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="26" t="s">
+        <v>286</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>258</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>259</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="E13" s="85" t="s">
+        <v>260</v>
+      </c>
+      <c r="F13" s="83" t="s">
+        <v>441</v>
+      </c>
+      <c r="G13" s="79" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="26" t="s">
+        <v>287</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>247</v>
+      </c>
+      <c r="D14" s="8"/>
+      <c r="E14" s="85" t="s">
+        <v>261</v>
+      </c>
+      <c r="F14" s="83" t="s">
+        <v>441</v>
+      </c>
+      <c r="G14" s="79" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="26" t="s">
+        <v>288</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>263</v>
+      </c>
+      <c r="D15" s="8"/>
+      <c r="E15" s="85" t="s">
+        <v>264</v>
+      </c>
+      <c r="F15" s="83" t="s">
+        <v>441</v>
+      </c>
+      <c r="G15" s="79" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="26" t="s">
+        <v>289</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>265</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>253</v>
+      </c>
+      <c r="E16" s="85" t="s">
+        <v>267</v>
+      </c>
+      <c r="F16" s="83" t="s">
+        <v>441</v>
+      </c>
+      <c r="G16" s="79" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="26" t="s">
+        <v>290</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>268</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>269</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E17" s="85" t="s">
+        <v>270</v>
+      </c>
+      <c r="F17" s="83" t="s">
+        <v>441</v>
+      </c>
+      <c r="G17" s="79" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="26" t="s">
+        <v>291</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>271</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>272</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="E18" s="85" t="s">
+        <v>273</v>
+      </c>
+      <c r="F18" s="83" t="s">
+        <v>441</v>
+      </c>
+      <c r="G18" s="79" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="26" t="s">
+        <v>292</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>247</v>
+      </c>
+      <c r="D19" s="8"/>
+      <c r="E19" s="85" t="s">
         <v>274</v>
       </c>
-      <c r="C9" s="27" t="s">
-        <v>375</v>
-      </c>
-      <c r="D9" s="27"/>
-      <c r="E9" s="27" t="s">
-        <v>367</v>
-      </c>
-      <c r="F9" s="27"/>
-      <c r="G9" s="27"/>
-    </row>
-    <row r="10" spans="1:7" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="26" t="s">
-        <v>411</v>
-      </c>
-      <c r="B10" s="27" t="s">
+      <c r="F19" s="83" t="s">
+        <v>441</v>
+      </c>
+      <c r="G19" s="79" t="s">
         <v>376</v>
       </c>
-      <c r="C10" s="27" t="s">
-        <v>377</v>
-      </c>
-      <c r="D10" s="27"/>
-      <c r="E10" s="27" t="s">
-        <v>378</v>
-      </c>
-      <c r="F10" s="27"/>
-      <c r="G10" s="27"/>
-    </row>
-    <row r="11" spans="1:7" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="26" t="s">
-        <v>412</v>
-      </c>
-      <c r="B11" s="27" t="s">
-        <v>379</v>
-      </c>
-      <c r="C11" s="27" t="s">
-        <v>380</v>
-      </c>
-      <c r="D11" s="27" t="s">
-        <v>381</v>
-      </c>
-      <c r="E11" s="27" t="s">
-        <v>382</v>
-      </c>
-      <c r="F11" s="27"/>
-      <c r="G11" s="27"/>
-    </row>
-    <row r="12" spans="1:7" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="26" t="s">
-        <v>413</v>
-      </c>
-      <c r="B12" s="27" t="s">
-        <v>383</v>
-      </c>
-      <c r="C12" s="27" t="s">
-        <v>384</v>
-      </c>
-      <c r="D12" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="E12" s="27" t="s">
-        <v>385</v>
-      </c>
-      <c r="F12" s="27"/>
-      <c r="G12" s="27"/>
-    </row>
-    <row r="13" spans="1:7" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="26" t="s">
-        <v>414</v>
-      </c>
-      <c r="B13" s="27" t="s">
-        <v>386</v>
-      </c>
-      <c r="C13" s="27" t="s">
-        <v>387</v>
-      </c>
-      <c r="D13" s="27" t="s">
-        <v>374</v>
-      </c>
-      <c r="E13" s="27" t="s">
-        <v>388</v>
-      </c>
-      <c r="F13" s="27"/>
-      <c r="G13" s="27"/>
-    </row>
-    <row r="14" spans="1:7" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="26" t="s">
-        <v>415</v>
-      </c>
-      <c r="B14" s="27" t="s">
-        <v>274</v>
-      </c>
-      <c r="C14" s="27" t="s">
-        <v>375</v>
-      </c>
-      <c r="D14" s="27"/>
-      <c r="E14" s="27" t="s">
-        <v>389</v>
-      </c>
-      <c r="F14" s="27"/>
-      <c r="G14" s="27"/>
-    </row>
-    <row r="15" spans="1:7" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="26" t="s">
-        <v>416</v>
-      </c>
-      <c r="B15" s="27" t="s">
-        <v>390</v>
-      </c>
-      <c r="C15" s="27" t="s">
-        <v>391</v>
-      </c>
-      <c r="D15" s="27"/>
-      <c r="E15" s="27" t="s">
-        <v>392</v>
-      </c>
-      <c r="F15" s="27"/>
-      <c r="G15" s="27"/>
-    </row>
-    <row r="16" spans="1:7" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="26" t="s">
-        <v>417</v>
-      </c>
-      <c r="B16" s="27" t="s">
-        <v>393</v>
-      </c>
-      <c r="C16" s="27" t="s">
-        <v>394</v>
-      </c>
-      <c r="D16" s="27" t="s">
-        <v>381</v>
-      </c>
-      <c r="E16" s="27" t="s">
-        <v>395</v>
-      </c>
-      <c r="F16" s="27"/>
-      <c r="G16" s="27"/>
-    </row>
-    <row r="17" spans="1:7" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="26" t="s">
-        <v>418</v>
-      </c>
-      <c r="B17" s="27" t="s">
-        <v>396</v>
-      </c>
-      <c r="C17" s="27" t="s">
-        <v>397</v>
-      </c>
-      <c r="D17" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="E17" s="27" t="s">
-        <v>398</v>
-      </c>
-      <c r="F17" s="27"/>
-      <c r="G17" s="27"/>
-    </row>
-    <row r="18" spans="1:7" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="26" t="s">
-        <v>419</v>
-      </c>
-      <c r="B18" s="27" t="s">
-        <v>399</v>
-      </c>
-      <c r="C18" s="27" t="s">
-        <v>400</v>
-      </c>
-      <c r="D18" s="27" t="s">
-        <v>374</v>
-      </c>
-      <c r="E18" s="27" t="s">
-        <v>401</v>
-      </c>
-      <c r="F18" s="27"/>
-      <c r="G18" s="27"/>
-    </row>
-    <row r="19" spans="1:7" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="26" t="s">
-        <v>420</v>
-      </c>
-      <c r="B19" s="27" t="s">
-        <v>274</v>
-      </c>
-      <c r="C19" s="27" t="s">
-        <v>375</v>
-      </c>
-      <c r="D19" s="27"/>
-      <c r="E19" s="27" t="s">
-        <v>402</v>
-      </c>
-      <c r="F19" s="27"/>
-      <c r="G19" s="27"/>
     </row>
     <row r="20" spans="1:7" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
@@ -5228,10 +5388,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C73227E8-B176-4CF5-BB2D-A3D98DF373BE}">
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5246,36 +5406,36 @@
     <col min="8" max="16384" width="8.88671875" style="25"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="28"/>
-      <c r="B1" s="42" t="s">
-        <v>403</v>
-      </c>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
+      <c r="B1" s="49" t="s">
+        <v>275</v>
+      </c>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
       <c r="F1" s="29"/>
       <c r="G1" s="30"/>
     </row>
-    <row r="2" spans="1:7" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="31" t="s">
-        <v>100</v>
-      </c>
-      <c r="B2" s="36" t="s">
-        <v>404</v>
-      </c>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
+        <v>94</v>
+      </c>
+      <c r="B2" s="43" t="s">
+        <v>276</v>
+      </c>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
       <c r="F2" s="32"/>
       <c r="G2" s="33"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="11" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="C3" s="11" t="s">
         <v>3</v>
@@ -5286,116 +5446,153 @@
       <c r="E3" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="11" t="s">
+      <c r="F3" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="11" t="s">
+      <c r="G3" s="58" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="26" t="s">
-        <v>421</v>
-      </c>
-      <c r="B4" s="27" t="s">
+        <v>293</v>
+      </c>
+      <c r="B4" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="C4" s="27" t="s">
+      <c r="C4" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="D4" s="27"/>
-      <c r="E4" s="27" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="D4" s="8"/>
+      <c r="E4" s="85" t="s">
+        <v>237</v>
+      </c>
+      <c r="F4" s="86" t="s">
+        <v>237</v>
+      </c>
+      <c r="G4" s="80" t="s">
+        <v>451</v>
+      </c>
+      <c r="H4" s="62"/>
+    </row>
+    <row r="5" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="26" t="s">
-        <v>422</v>
-      </c>
-      <c r="B5" s="27" t="s">
+        <v>294</v>
+      </c>
+      <c r="B5" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="C5" s="27" t="s">
-        <v>366</v>
-      </c>
-      <c r="D5" s="27" t="s">
+      <c r="C5" s="8" t="s">
+        <v>238</v>
+      </c>
+      <c r="D5" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="E5" s="27" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="E5" s="85" t="s">
+        <v>239</v>
+      </c>
+      <c r="F5" s="86" t="s">
+        <v>239</v>
+      </c>
+      <c r="G5" s="80" t="s">
+        <v>451</v>
+      </c>
+      <c r="H5" s="62"/>
+    </row>
+    <row r="6" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="26" t="s">
-        <v>423</v>
-      </c>
-      <c r="B6" s="27" t="s">
+        <v>295</v>
+      </c>
+      <c r="B6" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="C6" s="27" t="s">
+      <c r="C6" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="D6" s="27" t="s">
+      <c r="D6" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="E6" s="27" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="E6" s="85" t="s">
+        <v>240</v>
+      </c>
+      <c r="F6" s="86" t="s">
+        <v>240</v>
+      </c>
+      <c r="G6" s="80" t="s">
+        <v>451</v>
+      </c>
+      <c r="H6" s="62"/>
+    </row>
+    <row r="7" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="26" t="s">
-        <v>424</v>
-      </c>
-      <c r="B7" s="27" t="s">
-        <v>372</v>
-      </c>
-      <c r="C7" s="27" t="s">
-        <v>373</v>
-      </c>
-      <c r="D7" s="27" t="s">
-        <v>374</v>
-      </c>
-      <c r="E7" s="27" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+        <v>296</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>244</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="E7" s="85" t="s">
+        <v>239</v>
+      </c>
+      <c r="F7" s="86" t="s">
+        <v>239</v>
+      </c>
+      <c r="G7" s="80" t="s">
+        <v>451</v>
+      </c>
+      <c r="H7" s="62"/>
+    </row>
+    <row r="8" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="26" t="s">
-        <v>425</v>
-      </c>
-      <c r="B8" s="27" t="s">
-        <v>274</v>
-      </c>
-      <c r="C8" s="27" t="s">
-        <v>375</v>
-      </c>
-      <c r="D8" s="27"/>
-      <c r="E8" s="27" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+        <v>297</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>247</v>
+      </c>
+      <c r="D8" s="8"/>
+      <c r="E8" s="85" t="s">
+        <v>239</v>
+      </c>
+      <c r="F8" s="86" t="s">
+        <v>239</v>
+      </c>
+      <c r="G8" s="80" t="s">
+        <v>451</v>
+      </c>
+      <c r="H8" s="62"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="27"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F9" s="64"/>
+      <c r="G9" s="64"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="27"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="27"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="27"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="27"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="27"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="27"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="27"/>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
@@ -5419,10 +5616,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B3E0BCD-3844-4F1B-A117-9FA2715274FC}">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5437,36 +5634,36 @@
     <col min="8" max="16384" width="8.88671875" style="25"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="21" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="21" x14ac:dyDescent="0.3">
       <c r="A1" s="28"/>
-      <c r="B1" s="42" t="s">
-        <v>426</v>
-      </c>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
+      <c r="B1" s="49" t="s">
+        <v>298</v>
+      </c>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
       <c r="F1" s="29"/>
       <c r="G1" s="30"/>
     </row>
-    <row r="2" spans="1:7" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="31" t="s">
-        <v>100</v>
-      </c>
-      <c r="B2" s="36" t="s">
-        <v>427</v>
-      </c>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
+        <v>94</v>
+      </c>
+      <c r="B2" s="43" t="s">
+        <v>299</v>
+      </c>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
       <c r="F2" s="32"/>
       <c r="G2" s="33"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="11" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="C3" s="11" t="s">
         <v>3</v>
@@ -5477,93 +5674,132 @@
       <c r="E3" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="11" t="s">
+      <c r="F3" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="11" t="s">
+      <c r="G3" s="58" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="26" t="s">
-        <v>428</v>
-      </c>
-      <c r="B4" s="27" t="s">
-        <v>433</v>
-      </c>
-      <c r="C4" s="27" t="s">
-        <v>434</v>
-      </c>
-      <c r="D4" s="27"/>
-      <c r="E4" s="27" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+        <v>300</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>305</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>306</v>
+      </c>
+      <c r="D4" s="8"/>
+      <c r="E4" s="85" t="s">
+        <v>307</v>
+      </c>
+      <c r="F4" s="87" t="s">
+        <v>307</v>
+      </c>
+      <c r="G4" s="89" t="s">
+        <v>451</v>
+      </c>
+      <c r="H4" s="62"/>
+    </row>
+    <row r="5" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="26" t="s">
-        <v>429</v>
-      </c>
-      <c r="B5" s="27" t="s">
-        <v>436</v>
-      </c>
-      <c r="C5" s="27" t="s">
-        <v>437</v>
-      </c>
-      <c r="D5" s="27" t="s">
+        <v>301</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>308</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>309</v>
+      </c>
+      <c r="D5" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="E5" s="27" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="E5" s="85" t="s">
+        <v>310</v>
+      </c>
+      <c r="F5" s="88" t="s">
+        <v>379</v>
+      </c>
+      <c r="G5" s="59" t="s">
+        <v>376</v>
+      </c>
+      <c r="H5" s="62"/>
+    </row>
+    <row r="6" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="26" t="s">
-        <v>430</v>
-      </c>
-      <c r="B6" s="27" t="s">
-        <v>439</v>
-      </c>
-      <c r="C6" s="27" t="s">
-        <v>440</v>
-      </c>
-      <c r="D6" s="27" t="s">
+        <v>302</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>311</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>312</v>
+      </c>
+      <c r="D6" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="E6" s="27" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="E6" s="85" t="s">
+        <v>240</v>
+      </c>
+      <c r="F6" s="88" t="s">
+        <v>240</v>
+      </c>
+      <c r="G6" s="89" t="s">
+        <v>451</v>
+      </c>
+      <c r="H6" s="62"/>
+    </row>
+    <row r="7" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="26" t="s">
-        <v>431</v>
-      </c>
-      <c r="B7" s="27" t="s">
-        <v>441</v>
-      </c>
-      <c r="C7" s="27" t="s">
-        <v>442</v>
-      </c>
-      <c r="D7" s="27" t="s">
-        <v>374</v>
-      </c>
-      <c r="E7" s="27" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+        <v>303</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>313</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>314</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="E7" s="85" t="s">
+        <v>315</v>
+      </c>
+      <c r="F7" s="88" t="s">
+        <v>379</v>
+      </c>
+      <c r="G7" s="59" t="s">
+        <v>376</v>
+      </c>
+      <c r="H7" s="62"/>
+    </row>
+    <row r="8" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="26" t="s">
-        <v>432</v>
-      </c>
-      <c r="B8" s="27" t="s">
-        <v>274</v>
-      </c>
-      <c r="C8" s="27" t="s">
-        <v>375</v>
-      </c>
-      <c r="D8" s="27"/>
-      <c r="E8" s="27" t="s">
-        <v>444</v>
-      </c>
+        <v>304</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>247</v>
+      </c>
+      <c r="D8" s="8"/>
+      <c r="E8" s="85" t="s">
+        <v>316</v>
+      </c>
+      <c r="F8" s="88" t="s">
+        <v>379</v>
+      </c>
+      <c r="G8" s="59" t="s">
+        <v>376</v>
+      </c>
+      <c r="H8" s="62"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F9" s="64"/>
+      <c r="G9" s="64"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -5577,10 +5813,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C139FC4-0457-44E2-BD6E-B859AFCBBBE1}">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5590,41 +5826,41 @@
     <col min="3" max="3" width="44.6640625" style="25" customWidth="1"/>
     <col min="4" max="4" width="32.77734375" style="25" customWidth="1"/>
     <col min="5" max="5" width="41.109375" style="25" customWidth="1"/>
-    <col min="6" max="6" width="38.5546875" style="25" customWidth="1"/>
-    <col min="7" max="7" width="23.33203125" style="25" customWidth="1"/>
+    <col min="6" max="6" width="31.77734375" style="25" customWidth="1"/>
+    <col min="7" max="7" width="20" style="90" customWidth="1"/>
     <col min="8" max="16384" width="8.88671875" style="25"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="21" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="21" x14ac:dyDescent="0.3">
       <c r="A1" s="28"/>
-      <c r="B1" s="42" t="s">
-        <v>446</v>
-      </c>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
+      <c r="B1" s="49" t="s">
+        <v>318</v>
+      </c>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
       <c r="F1" s="29"/>
-      <c r="G1" s="30"/>
-    </row>
-    <row r="2" spans="1:7" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G1" s="37"/>
+    </row>
+    <row r="2" spans="1:8" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="31" t="s">
-        <v>100</v>
-      </c>
-      <c r="B2" s="36" t="s">
-        <v>445</v>
-      </c>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
+        <v>94</v>
+      </c>
+      <c r="B2" s="43" t="s">
+        <v>317</v>
+      </c>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
       <c r="F2" s="32"/>
-      <c r="G2" s="33"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G2" s="35"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="11" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="C3" s="11" t="s">
         <v>3</v>
@@ -5635,93 +5871,132 @@
       <c r="E3" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="11" t="s">
+      <c r="F3" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="11" t="s">
+      <c r="G3" s="58" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A4" s="48" t="s">
-        <v>447</v>
-      </c>
-      <c r="B4" s="27" t="s">
+    <row r="4" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A4" s="40" t="s">
+        <v>319</v>
+      </c>
+      <c r="B4" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="C4" s="27" t="s">
+      <c r="C4" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="D4" s="27"/>
-      <c r="E4" s="27" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A5" s="48" t="s">
-        <v>448</v>
-      </c>
-      <c r="B5" s="27" t="s">
+      <c r="D4" s="8"/>
+      <c r="E4" s="85" t="s">
+        <v>237</v>
+      </c>
+      <c r="F4" s="92" t="s">
+        <v>237</v>
+      </c>
+      <c r="G4" s="77" t="s">
+        <v>451</v>
+      </c>
+      <c r="H4" s="62"/>
+    </row>
+    <row r="5" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A5" s="40" t="s">
+        <v>320</v>
+      </c>
+      <c r="B5" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="C5" s="27" t="s">
-        <v>366</v>
-      </c>
-      <c r="D5" s="27" t="s">
+      <c r="C5" s="8" t="s">
+        <v>238</v>
+      </c>
+      <c r="D5" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="E5" s="27" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A6" s="48" t="s">
-        <v>449</v>
-      </c>
-      <c r="B6" s="27" t="s">
+      <c r="E5" s="85" t="s">
+        <v>324</v>
+      </c>
+      <c r="F5" s="92" t="s">
+        <v>324</v>
+      </c>
+      <c r="G5" s="77" t="s">
+        <v>451</v>
+      </c>
+      <c r="H5" s="62"/>
+    </row>
+    <row r="6" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A6" s="40" t="s">
+        <v>321</v>
+      </c>
+      <c r="B6" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="C6" s="27" t="s">
+      <c r="C6" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="D6" s="27" t="s">
+      <c r="D6" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="E6" s="27" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A7" s="48" t="s">
-        <v>450</v>
-      </c>
-      <c r="B7" s="27" t="s">
-        <v>372</v>
-      </c>
-      <c r="C7" s="27" t="s">
-        <v>373</v>
-      </c>
-      <c r="D7" s="27" t="s">
-        <v>374</v>
-      </c>
-      <c r="E7" s="27" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A8" s="48" t="s">
+      <c r="E6" s="85" t="s">
+        <v>240</v>
+      </c>
+      <c r="F6" s="92" t="s">
+        <v>240</v>
+      </c>
+      <c r="G6" s="77" t="s">
         <v>451</v>
       </c>
-      <c r="B8" s="27" t="s">
-        <v>274</v>
-      </c>
-      <c r="C8" s="27" t="s">
-        <v>375</v>
-      </c>
-      <c r="D8" s="27"/>
-      <c r="E8" s="27" t="s">
-        <v>452</v>
-      </c>
+      <c r="H6" s="62"/>
+    </row>
+    <row r="7" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A7" s="40" t="s">
+        <v>322</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>244</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="E7" s="85" t="s">
+        <v>324</v>
+      </c>
+      <c r="F7" s="92" t="s">
+        <v>324</v>
+      </c>
+      <c r="G7" s="77" t="s">
+        <v>451</v>
+      </c>
+      <c r="H7" s="62"/>
+    </row>
+    <row r="8" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A8" s="40" t="s">
+        <v>323</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>247</v>
+      </c>
+      <c r="D8" s="8"/>
+      <c r="E8" s="85" t="s">
+        <v>324</v>
+      </c>
+      <c r="F8" s="92" t="s">
+        <v>324</v>
+      </c>
+      <c r="G8" s="77" t="s">
+        <v>451</v>
+      </c>
+      <c r="H8" s="62"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F9" s="64"/>
+      <c r="G9" s="91"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -5735,10 +6010,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65C64934-3ED1-4798-B661-CF04A360606D}">
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -5753,36 +6028,36 @@
     <col min="8" max="16384" width="8.88671875" style="27"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="21" x14ac:dyDescent="0.25">
       <c r="A1" s="28"/>
-      <c r="B1" s="39" t="s">
-        <v>453</v>
-      </c>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
+      <c r="B1" s="46" t="s">
+        <v>325</v>
+      </c>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
       <c r="F1" s="29"/>
       <c r="G1" s="30"/>
     </row>
-    <row r="2" spans="1:7" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="31" t="s">
-        <v>100</v>
-      </c>
-      <c r="B2" s="36" t="s">
-        <v>454</v>
-      </c>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
+        <v>94</v>
+      </c>
+      <c r="B2" s="43" t="s">
+        <v>326</v>
+      </c>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
       <c r="F2" s="32"/>
       <c r="G2" s="33"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="C3" s="11" t="s">
         <v>3</v>
@@ -5793,249 +6068,364 @@
       <c r="E3" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="11" t="s">
+      <c r="F3" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="11" t="s">
+      <c r="G3" s="58" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A4" s="48" t="s">
-        <v>455</v>
-      </c>
-      <c r="B4" s="27" t="s">
+    <row r="4" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="40" t="s">
+        <v>327</v>
+      </c>
+      <c r="B4" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="C4" s="27" t="s">
+      <c r="C4" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="E4" s="27" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A5" s="48" t="s">
-        <v>456</v>
-      </c>
-      <c r="B5" s="27" t="s">
+      <c r="D4" s="8"/>
+      <c r="E4" s="85" t="s">
+        <v>237</v>
+      </c>
+      <c r="F4" s="87" t="s">
+        <v>237</v>
+      </c>
+      <c r="G4" s="95" t="s">
+        <v>451</v>
+      </c>
+      <c r="H4" s="93"/>
+    </row>
+    <row r="5" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A5" s="40" t="s">
+        <v>328</v>
+      </c>
+      <c r="B5" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="C5" s="27" t="s">
-        <v>460</v>
-      </c>
-      <c r="D5" s="27" t="s">
+      <c r="C5" s="8" t="s">
+        <v>332</v>
+      </c>
+      <c r="D5" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="E5" s="27" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A6" s="48" t="s">
-        <v>457</v>
-      </c>
-      <c r="B6" s="27" t="s">
+      <c r="E5" s="85" t="s">
+        <v>239</v>
+      </c>
+      <c r="F5" s="87" t="s">
+        <v>239</v>
+      </c>
+      <c r="G5" s="95" t="s">
+        <v>451</v>
+      </c>
+      <c r="H5" s="93"/>
+    </row>
+    <row r="6" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A6" s="40" t="s">
+        <v>329</v>
+      </c>
+      <c r="B6" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="C6" s="27" t="s">
+      <c r="C6" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="D6" s="27" t="s">
+      <c r="D6" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="E6" s="27" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A7" s="48" t="s">
-        <v>458</v>
-      </c>
-      <c r="B7" s="27" t="s">
-        <v>372</v>
-      </c>
-      <c r="C7" s="27" t="s">
-        <v>373</v>
-      </c>
-      <c r="D7" s="27" t="s">
-        <v>374</v>
-      </c>
-      <c r="E7" s="27" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A8" s="48" t="s">
-        <v>459</v>
-      </c>
-      <c r="B8" s="27" t="s">
-        <v>274</v>
-      </c>
-      <c r="C8" s="27" t="s">
-        <v>375</v>
-      </c>
-      <c r="E8" s="27" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A9" s="48" t="s">
-        <v>483</v>
-      </c>
-      <c r="B9" s="27" t="s">
+      <c r="E6" s="85" t="s">
+        <v>240</v>
+      </c>
+      <c r="F6" s="87" t="s">
+        <v>240</v>
+      </c>
+      <c r="G6" s="95" t="s">
+        <v>451</v>
+      </c>
+      <c r="H6" s="93"/>
+    </row>
+    <row r="7" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A7" s="40" t="s">
+        <v>330</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>244</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="E7" s="85" t="s">
+        <v>333</v>
+      </c>
+      <c r="F7" s="87" t="s">
+        <v>239</v>
+      </c>
+      <c r="G7" s="94" t="s">
+        <v>376</v>
+      </c>
+      <c r="H7" s="93"/>
+    </row>
+    <row r="8" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A8" s="40" t="s">
+        <v>331</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>247</v>
+      </c>
+      <c r="D8" s="8"/>
+      <c r="E8" s="85" t="s">
+        <v>239</v>
+      </c>
+      <c r="F8" s="87" t="s">
+        <v>239</v>
+      </c>
+      <c r="G8" s="95" t="s">
+        <v>451</v>
+      </c>
+      <c r="H8" s="93"/>
+    </row>
+    <row r="9" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A9" s="40" t="s">
+        <v>355</v>
+      </c>
+      <c r="B9" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="C9" s="27" t="s">
+      <c r="C9" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="E9" s="27" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A10" s="48" t="s">
-        <v>484</v>
-      </c>
-      <c r="B10" s="27" t="s">
+      <c r="D9" s="8"/>
+      <c r="E9" s="85" t="s">
+        <v>334</v>
+      </c>
+      <c r="F9" s="87" t="s">
+        <v>379</v>
+      </c>
+      <c r="G9" s="94" t="s">
+        <v>376</v>
+      </c>
+      <c r="H9" s="93"/>
+    </row>
+    <row r="10" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A10" s="40" t="s">
+        <v>356</v>
+      </c>
+      <c r="B10" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="C10" s="27" t="s">
-        <v>463</v>
-      </c>
-      <c r="D10" s="27" t="s">
+      <c r="C10" s="8" t="s">
+        <v>335</v>
+      </c>
+      <c r="D10" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="E10" s="27" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A11" s="48" t="s">
-        <v>485</v>
-      </c>
-      <c r="B11" s="27" t="s">
+      <c r="E10" s="85" t="s">
+        <v>336</v>
+      </c>
+      <c r="F10" s="87" t="s">
+        <v>379</v>
+      </c>
+      <c r="G10" s="94" t="s">
+        <v>376</v>
+      </c>
+      <c r="H10" s="93"/>
+    </row>
+    <row r="11" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A11" s="40" t="s">
+        <v>357</v>
+      </c>
+      <c r="B11" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="C11" s="27" t="s">
+      <c r="C11" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="D11" s="27" t="s">
+      <c r="D11" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="E11" s="27" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A12" s="48" t="s">
-        <v>486</v>
-      </c>
-      <c r="B12" s="27" t="s">
-        <v>466</v>
-      </c>
-      <c r="C12" s="27" t="s">
-        <v>467</v>
-      </c>
-      <c r="D12" s="27" t="s">
-        <v>374</v>
-      </c>
-      <c r="E12" s="27" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A13" s="48" t="s">
-        <v>487</v>
-      </c>
-      <c r="B13" s="27" t="s">
-        <v>274</v>
-      </c>
-      <c r="C13" s="27" t="s">
-        <v>375</v>
-      </c>
-      <c r="E13" s="27" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A14" s="48" t="s">
-        <v>488</v>
-      </c>
-      <c r="B14" s="27" t="s">
-        <v>470</v>
-      </c>
-      <c r="C14" s="27" t="s">
-        <v>471</v>
-      </c>
-      <c r="E14" s="27" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A15" s="48" t="s">
-        <v>489</v>
-      </c>
-      <c r="B15" s="27" t="s">
-        <v>473</v>
-      </c>
-      <c r="C15" s="27" t="s">
-        <v>474</v>
-      </c>
-      <c r="D15" s="27" t="s">
+      <c r="E11" s="85" t="s">
+        <v>337</v>
+      </c>
+      <c r="F11" s="87" t="s">
+        <v>379</v>
+      </c>
+      <c r="G11" s="94" t="s">
+        <v>376</v>
+      </c>
+      <c r="H11" s="93"/>
+    </row>
+    <row r="12" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A12" s="40" t="s">
+        <v>358</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>338</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>339</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="E12" s="85" t="s">
+        <v>340</v>
+      </c>
+      <c r="F12" s="87" t="s">
+        <v>379</v>
+      </c>
+      <c r="G12" s="94" t="s">
+        <v>376</v>
+      </c>
+      <c r="H12" s="93"/>
+    </row>
+    <row r="13" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A13" s="40" t="s">
+        <v>359</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>247</v>
+      </c>
+      <c r="D13" s="8"/>
+      <c r="E13" s="85" t="s">
+        <v>341</v>
+      </c>
+      <c r="F13" s="87" t="s">
+        <v>379</v>
+      </c>
+      <c r="G13" s="94" t="s">
+        <v>376</v>
+      </c>
+      <c r="H13" s="93"/>
+    </row>
+    <row r="14" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A14" s="40" t="s">
+        <v>360</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>342</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>343</v>
+      </c>
+      <c r="D14" s="8"/>
+      <c r="E14" s="85" t="s">
+        <v>344</v>
+      </c>
+      <c r="F14" s="87" t="s">
+        <v>379</v>
+      </c>
+      <c r="G14" s="94" t="s">
+        <v>376</v>
+      </c>
+      <c r="H14" s="93"/>
+    </row>
+    <row r="15" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A15" s="40" t="s">
+        <v>361</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>345</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>346</v>
+      </c>
+      <c r="D15" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="E15" s="27" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A16" s="48" t="s">
-        <v>490</v>
-      </c>
-      <c r="B16" s="27" t="s">
-        <v>476</v>
-      </c>
-      <c r="C16" s="27" t="s">
-        <v>477</v>
-      </c>
-      <c r="D16" s="27" t="s">
+      <c r="E15" s="85" t="s">
+        <v>347</v>
+      </c>
+      <c r="F15" s="87" t="s">
+        <v>379</v>
+      </c>
+      <c r="G15" s="94" t="s">
+        <v>376</v>
+      </c>
+      <c r="H15" s="93"/>
+    </row>
+    <row r="16" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A16" s="40" t="s">
+        <v>362</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>348</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>349</v>
+      </c>
+      <c r="D16" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="E16" s="27" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A17" s="48" t="s">
-        <v>491</v>
-      </c>
-      <c r="B17" s="27" t="s">
-        <v>479</v>
-      </c>
-      <c r="C17" s="27" t="s">
-        <v>480</v>
-      </c>
-      <c r="D17" s="27" t="s">
-        <v>374</v>
-      </c>
-      <c r="E17" s="27" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A18" s="48" t="s">
-        <v>492</v>
-      </c>
-      <c r="B18" s="27" t="s">
-        <v>274</v>
-      </c>
-      <c r="C18" s="27" t="s">
-        <v>375</v>
-      </c>
-      <c r="E18" s="27" t="s">
-        <v>482</v>
-      </c>
+      <c r="E16" s="85" t="s">
+        <v>350</v>
+      </c>
+      <c r="F16" s="87" t="s">
+        <v>379</v>
+      </c>
+      <c r="G16" s="94" t="s">
+        <v>376</v>
+      </c>
+      <c r="H16" s="93"/>
+    </row>
+    <row r="17" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A17" s="40" t="s">
+        <v>363</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>351</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>352</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="E17" s="85" t="s">
+        <v>353</v>
+      </c>
+      <c r="F17" s="87" t="s">
+        <v>379</v>
+      </c>
+      <c r="G17" s="94" t="s">
+        <v>376</v>
+      </c>
+      <c r="H17" s="93"/>
+    </row>
+    <row r="18" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A18" s="40" t="s">
+        <v>364</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>247</v>
+      </c>
+      <c r="D18" s="8"/>
+      <c r="E18" s="85" t="s">
+        <v>354</v>
+      </c>
+      <c r="F18" s="87" t="s">
+        <v>379</v>
+      </c>
+      <c r="G18" s="94" t="s">
+        <v>376</v>
+      </c>
+      <c r="H18" s="93"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F19" s="63"/>
+      <c r="G19" s="63"/>
     </row>
   </sheetData>
   <mergeCells count="2">
